--- a/eval/评测数据.xlsx
+++ b/eval/评测数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19966" windowHeight="8134" activeTab="3"/>
+    <workbookView windowWidth="19966" windowHeight="7543"/>
   </bookViews>
   <sheets>
     <sheet name="阅读理解能力" sheetId="3" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1309" uniqueCount="1147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1435" uniqueCount="1257">
   <si>
     <t>Prompt</t>
   </si>
@@ -40,6 +40,9 @@
     <t>minimax</t>
   </si>
   <si>
+    <t>tigerbot-7b（官网6月）</t>
+  </si>
+  <si>
     <t>chatglm-6b</t>
   </si>
   <si>
@@ -62,6 +65,9 @@
   </si>
   <si>
     <t>phoenix-inst-chat-7b</t>
+  </si>
+  <si>
+    <t>liny-chatflow-13b</t>
   </si>
   <si>
     <t>牙医：好的，让我们看看你的牙齿。从你的描述和我们的检查结果来看，你可能有一些牙齦疾病，导致牙齿的神经受到刺激，引起了敏感。此外，这些黑色斑点可能是蛀牙。
@@ -101,6 +107,9 @@
 4. 牙洞：牙医提到病人的牙齿上有蛀牙，需要清除蛀牙并填充牙洞。</t>
   </si>
   <si>
+    <t>根据对话，病人在检查中被发现可能有一些牙齪疾病和蛀牙。</t>
+  </si>
+  <si>
     <t>病人在检查中发现的牙齿问题有:牙齿的神经受到刺激引起敏感,以及牙齿黑色斑点可能是蛀牙。</t>
   </si>
   <si>
@@ -121,6 +130,9 @@
   </si>
   <si>
     <t>根据对话，病人可能有一些牙龈疾病和蛀牙，导致牙齿神经受到刺激并引起敏感。</t>
+  </si>
+  <si>
+    <t>病人在检查中发现的牙齿问题包括牙龈疾病、蛀牙和牙齦疾病。</t>
   </si>
   <si>
     <t>给出下面的数据表，回答以下问题：
@@ -174,6 +186,12 @@
 重量最轻的物品是编号为004的绿色物品，重量为4.8kg。</t>
   </si>
   <si>
+    <t>根据给出的数据表，我们可以得出以下答案：
+有6种颜色。
+重量最重的物品是003，重量为12.2kg。
+颜色和物品编号之间没有直接关系，因此无法确定重量最轻的物品的颜色。</t>
+  </si>
+  <si>
     <t>共有6种颜色,分别是红、蓝、黑、绿、黄和白。
 重量最重的物品是003,它的颜色是黑,重量为12.2kg。重量最轻的物品是006,它的颜色是白,重量为9.9kg。</t>
   </si>
@@ -203,6 +221,9 @@
     <t>根据给出的数据表，一共有6种颜色。重量最重/轻的物品是003，重量为12.2kg。</t>
   </si>
   <si>
+    <t>这个数据表中有6种颜色。重量最重的物品是003号的黑色物品，重量为12.2kg。</t>
+  </si>
+  <si>
     <t>文化艺术报讯 国务院办公厅发布关于2023年部分节假日安排的通知，具体内容如下：元旦：2022年12月31日至2023年1月2日放假调休，共3天。春节：1月21日至27日放假调休，共7天。1月28日（星期六）、1月29日（星期日）上班。清明节：4月5日放假，共1天。劳动节：4月29日至5月3日放假调休，共5天。4月23日（星期日）、5月6日（星期六）上班。端午节：6月22日至24日放假调休，共3天。6月25日（星期日）上班。中秋节、国庆节：9月29日至10月6日放假调休，共8天。10月7日（星期六）、10月8日（星期日）上班。
 基于以上信息回答：2023年五一假期怎么放假。</t>
   </si>
@@ -227,6 +248,9 @@
     <t>根据你提供的信息，2023年五一假期的具体安排如下：
 4月29日至5月3日放假调休，共5天。
 这意味着在4月29日（星期日）、4月30日（星期一）和5月1日（星期二，劳动节）这三天是法定假期。然后在5月2日（星期三）和5月3日（星期四）这两天，你需要调休，也就是说这两天你需要正常上班。所以，整个五一假期实际上是从4月29日至5月3日，共5天。</t>
+  </si>
+  <si>
+    <t>4月29日至5月1日放假调休。共3天。</t>
   </si>
   <si>
     <t>根据国务院办公厅发布的通知,2023年五一假期为5月1日至3日放假调休,共3天。5月4日(星期日)为公休日,5月5日(星期一)补休。这意味着,5月1日至3日放假期间,若工作需要,5月4日(星期日)需要正常上班。</t>
@@ -254,6 +278,9 @@
   </si>
   <si>
     <t>根据国务院办公厅发布的关于2023年部分节假日安排的通知，五一假期为4月29日至5月3日，共计3天。因此，2023年五一假期为三天。</t>
+  </si>
+  <si>
+    <t>2023年五一假期为4月29日至5月3日，共5天。</t>
   </si>
   <si>
     <t>用户: 你好，我想聊聊关于旅游的话题。
@@ -314,6 +341,9 @@
 8. 增强自信心：通过旅游，人们可以克服各种困难，挑战自己的极限，从而增强自信心。</t>
   </si>
   <si>
+    <t>旅游可以给人类带来很多好处，包括放松身心、减轻压力、拓展视野和思维、促进健康和锻炼等。</t>
+  </si>
+  <si>
     <t>旅游可以让人们放松身心,减轻压力,放松心情。旅游可以让人们了解不同的文化、风俗和历史,拓展人们的视野和思维方式。旅游还可以促进人们的健康和锻炼,比如徒步旅行、滑雪、游泳等等。此外,旅游还可以让人们享受美食、体验当地的生活和文化。旅游可以让人们结交新朋友,增加社交活动。总之,旅游可以给人们带来很多好处,让人们更全面地了解世界,同时也能够提高人们的生活质量。</t>
   </si>
   <si>
@@ -337,6 +367,9 @@
   </si>
   <si>
     <t>旅游可以给人们带来很多好处，包括放松身心、减轻压力、拓展视野、促进健康和锻炼等等。</t>
+  </si>
+  <si>
+    <t>旅游可以给人们带来很多好处，包括放松身心、拓展视野、促进健康和锻炼、增强文化认知等等。</t>
   </si>
   <si>
     <t>基于以下表格，请问张三的考勤情况
@@ -417,6 +450,11 @@
 根据以上信息，张三在1月1日和1月2日的考勤情况都是良好的，没有迟到、早退或请假。李四在1月1日有一次迟到记录，王五在1月1日有一次早退记录，赵六在1月1日有一次请假记录。</t>
   </si>
   <si>
+    <t>根据上述表格，张三的出勤情况如下：
+1月1日：上班时间为8:30，下班时间为17:30，没有迟到或早退，也没有请假。
+1月2日：上班时间为 8:00，下班时间为 17:00，没有迟到的记录，也没有早退或请假的记录。 因此，张三在1月1日和1月2日的出勤率均为100%。</t>
+  </si>
+  <si>
     <t>根据给出的表格,我们可以得到以下信息:
 - 张三的上班时间为8:00-17:30,下班时间为8:30-17:00,但是他在1月2日没有按时下班,因为出现了请假的情况。
 - 张三在1月1日迟到了0.5小时,在1月1日早退了0.5小时,但是在1月1日和1月2日都没有请假。
@@ -455,6 +493,9 @@
     <t>根据表格，张三的考勤情况如下：
 * 1月1日：上班时间为8:30，下班时间为17:30，未迟到、未早退、未请假。
 * 1月2日：上班时间为8:00，下班时间为17:00，未迟到、未早退、未请假。</t>
+  </si>
+  <si>
+    <t>张三1月1日上班时间为8:30，下班时间为17:30，是否迟到为否，是否早退为否，是否请假为否。张三1月2日上班时间为8:00，下班时间为17:00，是否迟到为否，是否早退为否，是否请假为否。</t>
   </si>
   <si>
     <t>父亲：儿子，你高中毕业了，现在打算上哪个大学？
@@ -497,6 +538,9 @@
 4. 适应大学生活：儿子计划尽早适应大学生活，以便更好地应对大学生活中的挑战和机会。
 5. 得到父亲的支持：儿子感谢父亲的支持，表示会加倍努力，不辜负父亲的期望。
 这些计划和打算表明儿子对大学生活有明确的目标和计划，并且愿意为实现这些目标付出努力。</t>
+  </si>
+  <si>
+    <t>儿子打算尽早适应大学，参加各种活动，拓阔视野和人脉，认真学习专业知识，努力取得成绩，争取奖学金和其他荣誉。</t>
   </si>
   <si>
     <t>儿子计划上大学后,制定了一些计划和打算,包括:
@@ -577,6 +621,9 @@
 他们对报复和自由的看法的不同之处在于，安迪认为报复只会让你变得和伤害你的人一样，并且会让你陷入无法自拔的心态中，所以他不主张报复。他更强调内心的自由，认为真正的自由是在内心找到自己的位置，无论身在何处，都可以自由自在地生活。而瑞德则更多地关注外在的自由，比如身体的自由，他可能认为报复可以让伤害你的人付出代价，从而实现一种外在的自由。</t>
   </si>
   <si>
+    <t>安迪认为时间宝贵，不应该浪费在不值得的事情上，报复并不是一种值得追求的自由。而瑞德则相信真正的自由在于内心找到自己的定位，无论身在何处都能自由自在地生存。两人的态度有所不同，但都认为自由是一种内在的状态。</t>
+  </si>
+  <si>
     <t>安迪认为时间宝贵,不应该浪费在报复上。他认为,如果有人伤害了你的朋友,你可以想方设法让他付出代价,但这并不意味着你应该变成和他一样的人,而是应该专注于解决问题并让自己走出困境。安迪认为,自由关键在于找到自己的内心位置,并在生活中自由自在地生活。
 而瑞德则不同,他认为自由是追求自己的目标和梦想,不受他人限制。他认为,如果一个人可以真正的变得自由,那他可能会像安迪一样对待别人,因为他可以在自己内心找到真正的自由和平静。瑞德认为,真正的自由需要一定程度的洗脑和自我控制,因为这样才能实现真正的自由。
 安迪和瑞德对报复和自由的看法存在显著差异。安迪更注重解决问题和自我控制,而瑞德则更注重追求自己的目标和梦想,这需要一定程度的自我控制和洗脑。</t>
@@ -607,6 +654,9 @@
     <t>安迪认为时间宝贵，不应该浪费在报复上，因为报复只会让他变得跟伤害他的人一样，陷入一种无法自拔的心态中。
 瑞德则认为，如果一个人可以真正的变得自由，那他会不会像你一样对待别人，也许会，也许不会。他认为真正的自由是在内心找到自己的位置，无论你身在何处，都可以自由自在地生活。
 安迪和瑞德对报复和自由的看法存在差异，安迪认为报复是一种无法摆脱的心态，而瑞德则认为真正的自由是在内心找到自己的位置。</t>
+  </si>
+  <si>
+    <t>安迪认为时间宝贵，不应该浪费在报复上，而瑞德则认为报复是必要的。他们的不同之处在于，安迪更注重内心的自由，而瑞德更注重外在的自由。</t>
   </si>
   <si>
     <t>A：您好，老师，我有一个问题想请教您。我现在是大学生，但是对我的未来职业规划感到有些困惑。我不确定自己应该做什么。
@@ -655,6 +705,9 @@
 7. 保持耐心和积极态度：职业规划是一个长期的过程，需要不断地探索和尝试。大学生应该保持耐心和积极的心态，相信自己最终会找到最适合自己的职业。</t>
   </si>
   <si>
+    <t>大学生可以通过参加社团活动、参加实习或者兼职等方式来探索自己的兴趣爱好与技能，并不断尝试新的领域。同时，也可以通过与专业人士的交流和咨询，了解自己所感兴趣的职业方向，并进一步提升职业技能。</t>
+  </si>
+  <si>
     <t>大学生想要找到自己真正的兴趣爱好和技能,可以参考下述建议:
 1. 探索自己的兴趣爱好:参加一些社团活动、课外活动或者志愿服务,了解自己的兴趣爱好和技能。尝试不同的活动,享受其中的乐趣,发现自己最喜欢的活动和领域。
 2. 尝试不同的实习和兼职:通过实习和兼职,实践自己的技能和了解不同的职业领域,更好地认识自己的职业兴趣和方向。在实习和兼职中,发现自己的优势和不足,进而更好地了解自己的职业方向。
@@ -695,6 +748,9 @@
 2. 尝试实习或者兼职：通过实习或者兼职来锻炼自己的实践能力和职业技能。
 3. 了解自己的兴趣爱好和技能：通过自我探索和反思，了解自己的兴趣爱好和技能，从而找到最适合自己的职业方向。
 总之，职业规划是一个长期的过程，需要不断地探索和尝试。大学生应该保持积极的心态，不断地努力，才能找到最适合自己的职业方向。</t>
+  </si>
+  <si>
+    <t>大学生可以通过参加社团活动、课外活动或志愿服务、实习或兼职等方式来探索自己的兴趣爱好和技能，并不断地尝试和探索，以找到最适合自己的职业。</t>
   </si>
   <si>
     <t>姓名,年龄,性别,国籍,身高(cm),体重(kg),学历
@@ -727,6 +783,9 @@
     <t>根据提供的信息，体重最重的人是Paulo，他的体重是80公斤。</t>
   </si>
   <si>
+    <t>Antonio的体重最重，为75公斤。</t>
+  </si>
+  <si>
     <t>根据表格,体重(kg)最大的人是Antonio,他的身高(cm)为182,体重(kg)为98。</t>
   </si>
   <si>
@@ -751,6 +810,9 @@
   </si>
   <si>
     <t>根据表格数据，Ahmed的体重是最重的，为80kg。</t>
+  </si>
+  <si>
+    <t>体重最重的是Paulo，他的体重为80kg。</t>
   </si>
   <si>
     <t>名称,价格,品牌,尺寸,颜色
@@ -796,6 +858,9 @@
     <t>根据提供的表格，Nike品牌的商品平均价格最高，为$59.99。</t>
   </si>
   <si>
+    <t>Nike品牌的商品在这个表格里有最高的平均价格。平均价格为$57.14。</t>
+  </si>
+  <si>
     <t>在这个表格中,平均价格最高的品牌是Nike,所有商品的平均价格是$59.99,其中包括运动鞋、牛仔裤和运动裤。</t>
   </si>
   <si>
@@ -819,6 +884,9 @@
   </si>
   <si>
     <t>在这个表格中有四个商品，它们的总价格为 $197.98。四个商品的总价格除以数量为 4，因此平均价格为 $197.98 ÷ 4 = $59.75。因此，Nike 的商品在这个表格中有最高的平均价格。</t>
+  </si>
+  <si>
+    <t>这个问题需要进行数学计算。我们可以将每个品牌的价格相加，然后除以它们的数量，得到平均价格。最后，我们将这些平均价格相加，并将它们除以总数量，得到平均价格的总和。然后，我们可以比较每个品牌的平均价格总和，找到最高的平均价格。在这个表格中，品牌Nike的平均价格最高，为$44.99。</t>
   </si>
   <si>
     <t>产品名称,价格,库存量,产地,保质期
@@ -847,6 +915,10 @@
     <t>根据提供的信息，有两种水果的库存量超过了50个：
 1. 香蕉：库存量为50个，超过了50个的标准。
 2. 西瓜：库存量为20个，虽然没有达到50个，但是超过了20个的标准。</t>
+  </si>
+  <si>
+    <t>香蕉,3.5元每个,50个
+柿子，4.5元，60个</t>
   </si>
   <si>
     <t>苹果库存量超过50个,有100个。
@@ -889,6 +961,9 @@
     <t>只有苹果的库存量超过了50个。</t>
   </si>
   <si>
+    <t>香蕉、葡萄、橙子、草莓、柿子的库存量超过了50个。</t>
+  </si>
+  <si>
     <t>装修设计师：您好，根据您的需求和家的面积，我们为您准备了三款套餐：A、B、C。A套餐需要20万，B套餐需要15万，C套餐需要10万。请问您对哪个套餐比较感兴趣呢？
 客户：其实我对C套餐比较满意，但是我的预算比最便宜的预算还要少2万。
 装修设计师：明白了，我们可以根据您的预算量身定制一个合适的方案。您可以告诉我您希望在哪些方面进行省钱，我们可以针对性地进行调整，以确保您得到最满意的效果。
@@ -912,6 +987,9 @@
   </si>
   <si>
     <t>客户的预算是20万元。</t>
+  </si>
+  <si>
+    <t>客户的预算是10万。但是客户的预算比最便宜的方案还要少2万。</t>
   </si>
   <si>
     <t>根据对话,客户的预算是比最便宜的预算还要少2万。</t>
@@ -960,6 +1038,9 @@
     <t>退货流程一般需要3个工作日进行审核，但具体时间可能会因银行处理速度而有所不同。</t>
   </si>
   <si>
+    <t>三个工作日。一旦审核成功，客服会提供具体的退货流程。如果退款审核不通过或者客户有其他问题，客服会及时与客户联系并提供解决方案。</t>
+  </si>
+  <si>
     <t>根据对话内容,退货流程一般需要三个工作日内审核申请,一旦审核通过,我们会通知客户并提供退货的具体流程。如果退货申请审核不通过,客户可以在第一时间联系客服人员,并讨论其他解决方案。退款一般需要在收到退回商品后的七个工作日内将退款金额退回客户的账户,但具体到账时间可能会因银行处理速度而有所不同。</t>
   </si>
   <si>
@@ -983,6 +1064,9 @@
   </si>
   <si>
     <t>退货流程一般需要三个工作日。</t>
+  </si>
+  <si>
+    <t>一般情况下，我们会在您提交售后申请后的三个工作日内审核您的申请。</t>
   </si>
   <si>
     <t>经纪人：您好，欢迎来到我们的房地产中介公司。我是经纪人李先生，有什么可以帮到您的？
@@ -1020,6 +1104,9 @@
 是的，经纪人在对话中向客户提供了更多的房源选择，并表示如果客户有任何问题，可以随时联系他。他还给客户留下了房源的资料和名片，以便客户参考和联系。</t>
   </si>
   <si>
+    <t>客户最终选择了位于市中心的独棟别墅的房源。经纪人提供了客户更多的选择，继续与客户沟通以了解其需求，并提供更多的房源信息。</t>
+  </si>
+  <si>
     <t>客户最终选择了价格更为实惠的房源,没有选择到符合自己要求的独栋别墅。经纪人向客户提供了更多的选择,提供了在郊区的联排别墅的房源资料和联系方式,并与客户进行了沟通,以满足客户的需求。</t>
   </si>
   <si>
@@ -1059,6 +1146,9 @@
 经纪人向客户提供了更多的选择，并继续与客户沟通以满足客户的需求。</t>
   </si>
   <si>
+    <t>客户表示需要考虑一下，并要求留下资料和联系方式。经纪人给了客户资料和联系方式，并表示随时可以为客户提供更多的选择或者继续沟通以满足客户的需求。</t>
+  </si>
+  <si>
     <t>参与者1：大家好，欢迎来到今天的会议，我们的主题是讨论定价。
 参与者2：非常感谢主持人邀请我参加这个会议，我认为定价是一个非常重要的话题。
 参与者3：我同意，定价可以直接影响到产品的销售和利润。所以我们需要仔细讨论。
@@ -1100,6 +1190,9 @@
 6. **定期回顾和更新**：定期回顾定价策略的效果，并根据市场和竞争环境的变化进行更新。</t>
   </si>
   <si>
+    <t>会议TODO是总结和制定定价策略。需要市场调查和分析、注重产品质量和设计、与竞争对手有差异，制定不同的价格策略以适应不同的季节性变化。</t>
+  </si>
+  <si>
     <t>根据会议参与者的讨论,会议TODO可能是以下内容:
 1. 了解产品、市场需求和竞争对手的价格情况,以确定适当的定价策略。
 2. 进行市场调查和分析,以了解目标客户和竞争对手的需求和购买行为。
@@ -1128,6 +1221,9 @@
   </si>
   <si>
     <t>会议TODO是指会议需要完成的任务或目标，通常是一个具体的问题或行动步骤。在讨论定价的会议中，会议TODO可能是确定最终的定价策略，或者制定定价计划和执行方案。</t>
+  </si>
+  <si>
+    <t>会议TODO是总结会议中的主要观点和建议。</t>
   </si>
   <si>
     <t>姓名,年龄,性别,职业,教育程度,婚姻状况,所在城市
@@ -1169,6 +1265,16 @@
     <t>在这7个人中，张三的职业与其教育程度最为匹配。张三是一名软件工程师，他拥有本科学历。在软件工程师这个职业中，本科学历通常是一个合适的起点，因为这个职业需要具备一定的计算机科学和编程技能。</t>
   </si>
   <si>
+    <t>根据这7个人的信息，我们可以计算出他们的教育程度和职业之间的关系。教育程度越高，职业越高端。因此，我们可以得出以下结论：
+张三：本科，软件工程师，未婚，北京
+李四：博士，医生，已婚，上海
+王五：硕士，律师，已婚，广州
+赵六：本科，市场营销经理，未婚，深圳
+刘七：硕士，金融投资顾问，已婚，杭州
+孙八：本科，设计师，已婚，成都
+钱九：高中，职业选手，未婚，武汉 因此，我们可以得出结论：李四的职业与其教育程度的匹配度最高。李四是一名医生，拥有博士学位，这是非常高的教育程度。医生是一个非常有挑战性的职业，需要高度的专业知识和技能，因此李四的学历和职业非常匹配。 其他人的职业与其学历之间也有一定的匹配度，但不如李四与医生之间的匹配度高。例如，张三的职业是软件工程师，虽然他的教育程度较高，但他的职业与他的学历并不完全匹配。同样，孙八的职业是设计师，虽然她的教育程度较高（本科），但她的职业与她的学历也不完全匹配。</t>
+  </si>
+  <si>
     <t>根据题目给出的信息,这些人的职业和教育程度如下:
 - 张三:软件工程师,本科,未婚,北京
 - 李四:医生,博士,已婚,上海
@@ -1217,6 +1323,9 @@
 * 孙八，教育程度为本科，职业为设计师，匹配程度为中等。
 * 钱九，教育程度为高中，职业为职业选手，匹配程度为较低。
 因此，这7个人中，张三的职业与其教育程度最为匹配。</t>
+  </si>
+  <si>
+    <t>王五</t>
   </si>
   <si>
     <t>客服：您好，欢迎拨打中国移动客户服务热线，我是10086客服，您有什么问题需要咨询？
@@ -1246,6 +1355,9 @@
     <t>用户想要查询的是他的手机话费和流量使用情况。</t>
   </si>
   <si>
+    <t>用户想要查询自己的手机话费余额、已使用流量和剩余流量情况以及套餐包含多少话费用途。</t>
+  </si>
+  <si>
     <t>用户想要查询的手机话费和流量使用情况。</t>
   </si>
   <si>
@@ -1257,6 +1369,9 @@
   </si>
   <si>
     <t>用户想要查询的是他的手机话费和流量使用情况，以及他的套餐详情和取消某个业务的相关流程。</t>
+  </si>
+  <si>
+    <t>用户：我想查询一下我的手机话费和流量使用情况。</t>
   </si>
   <si>
     <t>水果种类,1月销售量,2月销售量,3月销售量,1季度销售额
@@ -1305,6 +1420,9 @@
     <t>根据提供的数据，苹果在第一季度的销售额最高，为$20,000。</t>
   </si>
   <si>
+    <t>在第一季度内，销售最好的水果是草莓。在第一季度内草莓的销售额为$6, 000，是所有水果中最高的。</t>
+  </si>
+  <si>
     <t>根据提供的数据,苹果在第一季度内的销售最好。它在1月、2月和3月的销售量都比其他水果高,同时在1季度的销售额方面也最高。因此,苹果是一种在第一季度内销售最好水果的种类。</t>
   </si>
   <si>
@@ -1340,6 +1458,9 @@
   </si>
   <si>
     <t>根据提供的数据，樱桃在第一季度内销售最好，因为它的销售量最高，达到了$4,500。</t>
+  </si>
+  <si>
+    <t>香蕉在第一季度内销售最好，因为它的销售额最高。</t>
   </si>
   <si>
     <t>律师：你好，请问你是来咨询关于什么方面的法律问题？
@@ -1379,6 +1500,9 @@
 在发出律师函之前，客户可以寻求律师的专业意见，以确保律师函的内容准确、合法，并能有效地解决合同纠纷。</t>
   </si>
   <si>
+    <t>客户需要向律师提供合同、要求交付的邮件以及其他相关证据表明，他已向对方提出过要求，并要求对方在一定期限内履行合同义务。如果必要，律师可以协助客户进行进一步的取證工作。</t>
+  </si>
+  <si>
     <t>客户需要提供以下材料以支持发出正式的律师函要求对方履行合同义务:
 1. 合同文本:需要提供合同的完整文本,包括双方的姓名、地址、联系方式等信息。
 2. 交付要求的邮件:需要提供向对方发送要求交付产品的邮件,包括邮件的发送日期、收件人信息以及要求交付的具体产品信息等。
@@ -1402,6 +1526,9 @@
     <t>客户需要提供合同、交付要求的邮件以及其他相关证据，如有必要，律师可以协助客户进行进一步的取证工作。</t>
   </si>
   <si>
+    <t>客户需要提供合同、交付要求的邮件以及其他相关证据，如有必要，我们可以协助你进行进一步的取证工作。</t>
+  </si>
+  <si>
     <t>对于给定的问答对，判断问题是否被正确回答
 问题：地球是第几颗行星？
 答案：地球是第三颗行星。</t>
@@ -1425,6 +1552,11 @@
     <t>这个问答对中，问题被正确地回答了。地球确实是太阳系中的第三颗行星。</t>
   </si>
   <si>
+    <t>问题是否被回答正确取决于问题的具体含义和答案的准确性。如果问题是指“地球在太阳系中的位置”，那么答案“地球是第三行星”是正确的。因为太阳系中共有八颗行星，按照距离太阳的远近分别为水星、金星、地球、火星、木星、土星、天王星和海王星。因此，地球是第三个行星。
+但是，如果问题是指地球在太阳系的相对位置，那么答案就不一定正确了。因为地球并不是一个固定的行星，而是围绕太阳公转的行星之一。因此，如果问题是“地球在太阳系统中的相对位置是什么？”，那么答案就不再是“地球是第三棵行星”，而是需要根据具体的时间和位置来确定。
+总之，回答问题是否正确需要根据问题的具体含义来判断，同时需要注意答案的准确性和完整性。</t>
+  </si>
+  <si>
     <t>地球是第三颗行星。</t>
   </si>
   <si>
@@ -1468,6 +1600,12 @@
     <t>能量守恒定律是物理学中的一个基本定律，它指出在一个孤立的系统中，总能量在任何时间都是恒定的，既不能被创造，也不能被摧毁，只能从一种形式转化为另一种形式。这个定律在许多科学领域都有重要应用，包括物理学、化学、生物学和工程学等。
 能量守恒定律可以用数学公式表示为：E = mc²，其中E表示能量，m表示质量，c表示光速。这个公式表明，能量（E）与质量（m）和光速（c）的平方成正比。
 能量守恒定律是自然界的一个基本规律，它解释了许多自然现象，如物体的运动、热传递和化学反应等。在这些过程中，能量总是从一种形式转化为另一种形式，但总量保持不变。</t>
+  </si>
+  <si>
+    <t>能量守恒是指在一个封闭系统中，能量不能增加或减少，只能被转化为其他形式。这意味着，在一个封闭系统中能量不会被创造或销毁，只能被转换为其他形式。这个定律是物理学中最基本的定律之一，它适用于所有物理系统，包括机械系统、热力学系统、电磁系统等等。
+能量守恒的表达式为：“能量守恒，即能量不能被创建或销毁，只能在系统中从一个形式转化为另一个形式。”
+这个定律的证明可以通过反证法来解释。假设一个封闭系统中存在能量的增加或减少。如果能量增加，那么这个系统将不再是一个封闭系统，因为能量不能从一个封闭系统中进入或离开。同样地，如果能量减少，那么这个系统中将存在一个能量来源，这违反了能量守恒的原则。
+能量守衡定律在物理学中有着广泛的应用。例如，在机械系统中，能量守衡可以用来计算物体的势能和动能。在热力学系统中，能量可以转化为热能和机械能。在电磁系统中，能量可以被转化为电能和磁场能。因此，能量守恒是物理学中一个非常重要的概念，它帮助我们理解自然界中各种物理现象的本质。</t>
   </si>
   <si>
     <t>能量守恒定律是指在一个孤立系统中,总能量在任何时间都是不变的。能量不能被创造或摧毁,只能被转化成其他形式。例如,当一个物体被提起并释放时,它的势能被转化为动能,使得物体开始运动,这个现象说明了能量守恒定律。这个定律是物理学中的一个重要概念,对于理解自然界的奥秘有着重要的意义。</t>
@@ -1490,6 +1628,9 @@
   </si>
   <si>
     <t>能量守恒定律是指在一个孤立系统中，能量不会被创造或摧毁，只能转化成其他形式。这意味着，能量不会凭空出现或消失，它会在各种形式之间转换。例如，当一个物体被提起并释放时，它的势能被转化为动能，使得物体开始运动。</t>
+  </si>
+  <si>
+    <t>能量守恒定律是指一个孤立系统的总能量在任何时间都是不变的。</t>
   </si>
   <si>
     <t>用户询问：我想画一幅户型效果图，输入是一个2D户型图，想得到3D的
@@ -1522,6 +1663,9 @@
 其他的API，如“户型图生成API”、“材料库API”和“分享和导出API”，虽然也很有用，但它们并不能直接满足用户将2D户型图转换为3D效果图的需求。</t>
   </si>
   <si>
+    <t>根据用户需求，需要将2D户型图的户型效果转化为3D效果，因此最合适的API是可视化效应API。该API可以将2D或3D的户型图转化成高质量的渲染图片，用户可以选择不同的角度和光线设置、应用不同的滤鏡和效果，以生成满意的可視化效果。</t>
+  </si>
+  <si>
     <t>最合适的API应该是基于用户需求和API描述综合来看的。
 从用户需求方面来看,需要一个能够生成3D户型图、提供可视化效果和材料库的API。因此,我推荐选择家具库API。
 家具库API提供了各种不同类型和风格的家具,例如沙发、床、桌子等等,用户可以通过此API获取家具库中的对象,并将其添加到户型图中。这个API的功能可以满足用户生成3D户型图的需求。
@@ -1558,6 +1702,9 @@
     <t>根据用户需求和API描述，我建议使用户型图生成API。这个API可以自动生成符合用户需求的户型图，并且可以接受房屋尺寸、房间数量、门窗位置和布局等信息，非常适合用户的需求。用户可以使用户型图生成API来快速创建户型图，并且可以轻松地编辑和修改。此外，这个API还提供了将生成的户型图导出为不同的文件格式，以便用户与他人分享和打印。</t>
   </si>
   <si>
+    <t>基于用户需求和api描述，我推荐使用可视化效果API。该API可以将用户生成的2D或3D户型图转化为高质量的渲染图像，用户可以选择不同的视角和光线设置，以及应用不同的滤镜和效果，来生成满意的可视化效果。</t>
+  </si>
+  <si>
     <t>根据以下句子回答问题：
 句子：张三今年28岁，来自上海，已婚，有一个四岁的孩子。他在一家律师事务所工作，负责处理公司法律事务。
 问题：张三是做什么工作的？</t>
@@ -1581,6 +1728,9 @@
     <t>张三是在一家律师事务所工作，负责处理公司法律事务。</t>
   </si>
   <si>
+    <t>张三是一家律师事务所的律师，他负责处理公司相关的法律事务。</t>
+  </si>
+  <si>
     <t>张三是在律师事务所工作的,负责处理公司法律事务。</t>
   </si>
   <si>
@@ -1595,6 +1745,9 @@
   </si>
   <si>
     <t>张三是一名律师，他负责处理公司法律事务。</t>
+  </si>
+  <si>
+    <t>张三是律师。</t>
   </si>
   <si>
     <t>根据以下描述给出一个合适的职业名称。
@@ -1619,6 +1772,10 @@
     <t>这个人的职业名称可能是"医疗助理"或"护士"。</t>
   </si>
   <si>
+    <t>职业名称：护士。
+护士是医院中非常重要的职业之一，他们负责照顾和治疗病人，提供医疗护理服务。护士需要接受专业的护理培训，掌握各种医疗技能，如测量和记录病人的体温、血压和脉搏，给病人注射药物，处理病人的伤口等。护士还需要与医生和其他医疗人员密切合作，确保病人得到最好的治疗和护理。</t>
+  </si>
+  <si>
     <t>医疗照顾员或医疗照顾者</t>
   </si>
   <si>
@@ -1633,6 +1790,9 @@
   </si>
   <si>
     <t>这个人的职业名称可以是“医疗助手”或者“医疗助理”。</t>
+  </si>
+  <si>
+    <t>医疗护士</t>
   </si>
   <si>
     <t>基于给定的文本和问题，提供文本的答案。
@@ -1656,6 +1816,16 @@
     <t>根据文本中的描述，雪茄形毒素中毒的症状包括头痛、视力模糊和呕吐等。</t>
   </si>
   <si>
+    <t>雪茄形毒性是一种由细菌引起的疾病，其症状可以因个体差异而异。然而，大多数人感染后会出现以下症状：
+头痛：这是最常见的症状之一，通常出现在感染后的几天内。头痛可能会在感染后的一周内持续数天。
+呕吐：感染后，患者可能会出现恶心和呕吐的症状。呕吐可能发生在感染后的几天或几周内。
+腹泻：感染后患者可能会出现腹泻的症状。腹泻可能持续数天或数周。
+发热：感染后患者的体温可能会升高，通常为38°C或更高。
+疲劳：感染后可能会出现疲劳的症状。疲劳可能持续数周或数月。
+视力模糊：感染后视力可能会变得模糊，这可能是由于炎症引起的。
+其他症状：除了上述症状外，感染后还可能会出现其他症状，如肌肉疼痛、喉咙痛、咳嗽等。 因此，如果您出现上述症状，特别是头痛、呕吐和腹泻等症状，请及时就医。</t>
+  </si>
+  <si>
     <t>雪茄形毒素中毒的症状包括头痛、视力模糊、恶心、呕吐和皮疹等。大约80%的人会出现上述症状,但也有一部分人可能症状轻微,只有头痛和视力模糊。少数人也可能没有任何症状。如果怀疑自己可能患有雪茄形毒素中毒,建议立即就医。</t>
   </si>
   <si>
@@ -1691,6 +1861,11 @@
     <t>帕瑞夫和邦尼·班尼领导的运动是一个反疫苗运动。</t>
   </si>
   <si>
+    <t>帕瑞夫与邦尼·班尼的运动是一个反疫苗运动。他们反对接种疫苗，并声称疫苗是危险的、会导致各种疾病，包括自閉症和神经系统疾病的。然而，这种主张并没有得到科学界广泛认可和支持。
+大多数专家认为疫苗是预防疾病最有效的方式，接种疫苗是个人和社区保护免受疾病侵害最佳途径之一。疫苗接种的广泛普及已经导致一些传染病的发病率减少或消失。因此，政府和卫生机构一直在积极推广接种疫苗，以保护公共健康和安全。
+总之，帕瑞夫及邦尼·班尼·领导的运动是一个反科学、反疫苗的运动，其主张并没有得到广泛认可和支持，大多数专家和卫生机构都认为接种疫苗是非常必要和正确的做法，以保护个人和社区的健康和安全。</t>
+  </si>
+  <si>
     <t>帕瑞夫和邦尼·班尼领导了一种名为“为了科学和理性”的反疫苗运动,该运动旨在反对接种疫苗的做法。他们声称疫苗是危险的,会导致各种疾病和不良反应,包括自闭症和神经系统疾病。然而,这些声称并没有得到科学界的广泛认可和支持。大多数专家认为,疫苗是预防传染病最有效的方式之一,而且接种疫苗是保护个人和社区免受疾病侵害的最佳途径之一。事实上,由于接种疫苗的广泛普及,一些传染病已经被消灭或大大减少了发病率。虽然帕瑞夫和邦尼·班尼的反疫苗运动在某些社区中获得了一定的支持,但大多数人仍然认为接种疫苗是必要的和正确的做法。政府和卫生机构也一直在积极推广疫苗接种,以保护公众的健康和安全。</t>
   </si>
   <si>
@@ -1711,6 +1886,9 @@
   <si>
     <t xml:space="preserve">
 帕瑞夫和邦尼·班尼领导了一个名为“为了科学和理性”的反疫苗运动，这个运动旨在反对接种疫苗的做法。他们声称，疫苗是危险的，并且会导致各种疾病和不良反应，包括自闭症和神经系统疾病。然而，这些声称并没有得到科学界的广泛认可和支持。大多数专家认为，疫苗是预防传染病最有效的方式之一，而且接种疫苗是保护个人和社区免受疾病侵害的最佳途径之一。事实上，由于接种疫苗的广泛普及，一些传染病已经被消灭或大大减少了发病率。虽然帕瑞夫和邦尼·班尼的反疫苗运动在某些社区中获得了一定的支持，但大多数人仍然认为接种疫苗是必要的和正确的做法。政府和卫生机构也一直在积极推广疫苗接种，以保护公众的健康和安全。</t>
+  </si>
+  <si>
+    <t>帕瑞夫和邦尼·班尼领导了一个反对接种疫苗的运动，称为“为了科学和理性”。</t>
   </si>
   <si>
     <t>根据以下文字，回答问题：
@@ -1728,6 +1906,9 @@
   </si>
   <si>
     <t>[接口返回为空]</t>
+  </si>
+  <si>
+    <t>王昭君被称为“四大美女”之一。她的美貌、才华和和亲公主的身份都为她赢得了广泛的赞誉。</t>
   </si>
   <si>
     <t>王昭君被称为“四大美女之一”，这是因为她的美貌和才华在当时被誉为非常出众。她还被誉为“和亲美人”，这是因为她被选派到匈奴作为汉朝的和平使，并与匈奴的国王结婚。她的故事也经常被用来描述在中国历史上女性在政治、社会和文化方面的地位和贡献，以及女性在逆境中的坚韧和勇气。</t>
@@ -1764,6 +1945,9 @@
     <t>白色犀牛是一种受到保护的动物。</t>
   </si>
   <si>
+    <t>白色犀牛受到保护。为了保护这种濒危的动物，采取了多种措施，包括加强法律保护和建立野生动物保护区和监测等。这些措施的共同作用下，白色犀牛的数量逐渐恢复。南非是白洲牛数量恢复最显著的地区之一，自保护活动开展后，其数量已经从灭绝状态恢复到了20世纪60 年代的水平。</t>
+  </si>
+  <si>
     <t>白犀牛</t>
   </si>
   <si>
@@ -1812,6 +1996,9 @@
 3. "德国"</t>
   </si>
   <si>
+    <t>文中提到了“欧洲联盟”（European Union）、“法国”（France）和“德国”（Germany）。</t>
+  </si>
+  <si>
     <t>文中提到的国家包括“欧洲联盟”、“法国”和“德国”。</t>
   </si>
   <si>
@@ -1834,6 +2021,9 @@
     <t>文中提到了三个国家：法国、德国和欧洲联盟。</t>
   </si>
   <si>
+    <t>文中提到了欧洲联盟、法国和德国三个国家。</t>
+  </si>
+  <si>
     <t>阅读下方简短故事后，回答问题。
 石头剪子布是一个古老的游戏，两个人通过比划各自张开的手势来对决。石头胜于剪刀，剪刀胜于布，布胜于石头。如果两个人同时出相同的手势，就是平局。小明和小红玩石头剪子布，小明出了石头，小红出了布。谁赢了？</t>
   </si>
@@ -1855,6 +2045,9 @@
   </si>
   <si>
     <t>小明赢了。因为在石头剪子布的规则中，石头胜于剪刀，剪刀胜于布，所以小明的石头手势胜过小红的布手势。</t>
+  </si>
+  <si>
+    <t>小明赢了。因为石头胜于布。在石头剪子比划中，石头是最强的，而布是最弱的。因此，小明出石头，比小红出布更强。</t>
   </si>
   <si>
     <t>根据故事描述,石头胜于剪刀,剪刀胜于布,布胜于石头,因此小明出石头是输了。</t>
@@ -1914,6 +2107,11 @@
 事件：面试</t>
   </si>
   <si>
+    <t>时间：下周二上午10
+地点：市中心的办公室
+事件：面试通过，收到面试通知，需要准备相关问题和回答，提前到达面试地点。</t>
+  </si>
+  <si>
     <t>时间:下周二上午10点
 地点:位于市中心的办公室
 事件:面试</t>
@@ -1947,6 +2145,9 @@
   </si>
   <si>
     <t>面试的时间是下周二上午10点，地点是我们公司位于市中心的办公室。面试官是招聘主管，面试内容包括公司的业务和文化以及相关的问题和回答。候选人需要提前到达面试现场，以便有足够的时间了解公司和环境。面试前需要准备好相关的问题和回答，并仔细研究公司的业务和文化。</t>
+  </si>
+  <si>
+    <t>时间：下周二上午10点；地点：市中心的办公室；事件：面试。</t>
   </si>
   <si>
     <t>给定以下文本段落，提取其中的关键信息。
@@ -1990,6 +2191,17 @@
 4. 计划还包括启动社区倡议，以提高居民对警察工作的支持度。</t>
   </si>
   <si>
+    <t>关键信息：
+时间：今天早上
+地点：纽约市
+主题：新的计划
+目的：减少治安问题
+措施：
+增加派遣警察人数
+启动社区倡议
+预期效果：提高居民对警察工作支持度</t>
+  </si>
+  <si>
     <t>关键信息:
 - 纽约市长在新闻发布会上宣布了新的计划,减少治安问题。
 - 该计划包括增加派遣警察的人数和启动社区倡议。
@@ -2023,6 +2235,9 @@
 2. 计划旨在减少治安问题
 3. 包括增加派遣警察的人数
 4. 启动社区倡议，以提高居民对警察工作的支持度</t>
+  </si>
+  <si>
+    <t>关键信息：纽约市长，新闻发布会，新计划，减少治安问题，增加派遣警察，启动社区倡议，提高居民对警察工作的支持度。</t>
   </si>
   <si>
     <t>根据所提供的一段文本，提取其中的名词列表。
@@ -2098,6 +2313,9 @@
 29. 回忆</t>
   </si>
   <si>
+    <t>名词列表：游戏、人们、娱乐方式、空闲时间、身心、快乐、挑战、游戏世界、角色扮演、虚拟、任务、关卡、智慧、技能、新朋友、难关、欢笑、成功、游戏过程、疲惫、压力、体验、回忆、奖励、成就感。</t>
+  </si>
+  <si>
     <t>游戏, 娱乐方式, 空闲时间, 放松身心, 快乐, 挑战, 网络游戏, 角色扮演, 虚拟游戏世界, 其他玩家, 探险, 战斗, 合作, 竞争, 任务, 关卡, 挑战, 智慧, 技能, 新朋友, 难关, 欢笑, 成功, 奖励, 成就感, 体验, 回忆。</t>
   </si>
   <si>
@@ -2138,6 +2356,9 @@
   </si>
   <si>
     <t>名词: 游戏、角色扮演、虚拟世界、探险、战斗、合作、竞争、任务、关卡、挑战、新朋友、奖励、成就感、疲惫、压力、快乐、回忆。</t>
+  </si>
+  <si>
+    <t>游戏、人们、娱乐方式、空闲时间、身心、快乐、挑战、网络游戏、角色、游戏世界、任务、关卡、挑战、新朋友、欢笑、成功、目标、奖励、成就感。</t>
   </si>
   <si>
     <t>根据给出的一组文字，提取其中的关键信息，并用json格式表示
@@ -2234,6 +2455,20 @@
   </si>
   <si>
     <t>{
+"公司名称": "未提供",
+"公司所在地": "中国上海",
+"业务领域": "生物技术",
+"专注方向": "基因编辑工具",
+"技术特点": "革命性",
+"目标": "改变基因和生命的本质理解，为人类健康和疾病治疗作出贡献",
+"团队构成": "富有经验和专业知识，深入研究多年，在该领域做出卓越贡献的科学家和技术专家",
+"使命": "将最新科学成果转化为创新产品，帮助更多人受益于技术应用",
+"产品发布": "未来几个月内",
+"期望结果": "在该领域取得突破，为客户提供卓越产品和服务"
+}</t>
+  </si>
+  <si>
+    <t>{
 "name": "基因编辑公司",
 "location": "中国上海",
 "使命": "将最新科学成果转化为创新的产品,帮助更多的人受益于这项技术的应用",
@@ -2337,6 +2572,9 @@
 }</t>
   </si>
   <si>
+    <t>{"公司名称": "新公司", "公司位置": "中国上海", "公司职责": "生物技术领域，致力于研发和生产基因编辑工具", "公司产品": "基因编辑工具", "公司使命": "将最新科学成果转化为创新产品并帮助更多人受益于该技术的应用", "公司产品推出时间": "未来几个月内", "公司产品优势": "帮助我们在该领域取得重大突破并为客户提供卓越产品和服务", "公司团队": "由一群富有经验和专业知识的科学家和技术专家组成", "公司资质": "具有革命性的技术，可以改变我们对基因和生命本质的理解", "公司贡献": "为人类的健康和疾病治疗做出巨大贡献"}</t>
+  </si>
+  <si>
     <t>在给定的短文中找出三个关键词。
 西方的哲学历史可上溯至古希腊时期，最重要的哲学流派包括柏拉图学派、亚里士多德学派和斯多葛学派。</t>
   </si>
@@ -2366,6 +2604,9 @@
     <t>关键词：西方的哲学历史、古希腊时期、柏拉图学派、亚里士多德学派、斯多葛学派。</t>
   </si>
   <si>
+    <t>哲学历史、柏拉图、斯多葛。</t>
+  </si>
+  <si>
     <t>关键词:西方、哲学历史、古希腊、柏拉图学派、亚里士多德学派、斯多葛学派。</t>
   </si>
   <si>
@@ -2389,6 +2630,9 @@
   </si>
   <si>
     <t>三个关键词：西方、哲学、历史。</t>
+  </si>
+  <si>
+    <t>西方哲学，古希腊，柏拉图学派、亚里士多德学派、斯多葛学派。</t>
   </si>
   <si>
     <t>根据以下段落，对其中的关键信息进行提取：“2019年，苹果公司发布了一款备受期待的新型Macbook Air笔记本电脑。这款电脑的最大特点是其轻巧的设计，重量仅有2.75磅（约合1.25千克），非常适合携带出行使用。除此之外，新款Macbook Air还拥有非常出色的电池续航能力，可以使用长达12个小时。这意味着用户可以在一天中的大部分时间内不需要进行充电，从而更加方便地使用电脑。此外，新款Macbook Air还采用了更快的处理器和更高的内存容量，以提供更强大的性能和更快的响应速度。这使得它成为一款非常适合用于高效工作和多媒体制作的电脑。总的来说，苹果公司在这款新型Macbook Air中集成了许多出色的技术和设计，使其成为了一款非常强大、便携、耐用的电脑，受到了广大消费者的热烈欢迎。”</t>
@@ -2441,6 +2685,13 @@
 5. 新款Macbook Air采用了更快的处理器和更高的内存容量，以提供更强大的性能和更快的响应速度。
 6. 这款电脑非常适合用于高效工作和多媒体制作。
 7. 新款Macbook Air集成了许多出色的技术和设计，成为了一款非常强大、便携、耐用的电脑，受到了广大消费者的热烈欢迎。</t>
+  </si>
+  <si>
+    <t>关键信息：
+时间：2019年
+产品：新型Macbook AIR笔记本电脑
+特点：轻巧、便携，电池续航长达12小时，拥有出色的性能和响应速度，适合高效工作和多媒体制作。
+技术：更快的处理器、更高的内存容量、出色的设计和耐用性。</t>
   </si>
   <si>
     <t>关键信息:
@@ -2505,6 +2756,14 @@
 * 重量：2.75磅（约合1.25千克）
 * 续航时间：12个小时
 * 设计特点：适合携带出行使用</t>
+  </si>
+  <si>
+    <t>关键信息：
+- 2019年，苹果公司发布了一款备受期待的新型Macbook Air笔记本电脑。
+- 新款Macbook Air的最大特点是其轻巧的设计，重量仅有2.75磅（约合1.25千克），非常适合携带出行使用。
+- 新款Macbook Air拥有非常出色的电池续航能力，可以使用长达12个小时。
+- 新款Macbook Air采用了更快的处理器和更高的内存容量，以提供更强大的性能和更快的响应速度。
+- 新款Macbook Air成为了一款非常强大、便携、耐用的电脑，受到了广大消费者的热烈欢迎。</t>
   </si>
   <si>
     <t>请你从下面的文段中提取出所有的数字，并按照从小到大的顺序排列。
@@ -2563,6 +2822,9 @@
 请注意，这些数字可能不完全准确，因为它们是根据文段中的信息计算出来的。</t>
   </si>
   <si>
+    <t>8800、3000、3000、7000、8000、9000、3000、5000、3000、29000、50万人。</t>
+  </si>
+  <si>
     <t>8800、30%、5000、29000、比利时、50、70、5000、死亡地带、8000、海平面的三分之一、29000平方公里、不到50万人、极少数、高度、难度、体力、勇气、耐心。按照从小到大的顺序排列为:8800、30、5000、29000、比利时、50、70、29000平方公里、死亡地带、8000、高度、难度、体力、勇气、耐心。</t>
   </si>
   <si>
@@ -2595,6 +2857,9 @@
   </si>
   <si>
     <t>珠穆朗玛峰的海拔超过8800米，被世人称为珠穆朗玛峰。这座位于尼泊尔与中国的边界上的山峰，不仅仅是全球海拔最高的山峰，也是世界上最难攀登的山峰之一。据统计，珠穆朗玛峰登顶成功率仅为30%左右，每年尝试登顶的人数高达数千人。为了攀登珠穆朗玛峰，登山者需要经历非常困难的登山路线。其中最著名的是从南坡进入珠峰大本营，全长约70公里。这条路线最大的难点是海拔高度，其中包括一段被称为“死亡地带”的路段，海拔高度超过8000米，氧气含量只有海平面的三分之一，非常危险。据悉，每年尝试登顶珠穆朗玛峰的人数高达5000人左右，其中有不少登山者因氧气不足、体力不支、天气突变等原因而死亡。除了高海拔，珠穆朗玛峰还有其他令人震惊的数字。比如，它的顶峰被冰雪覆盖的面积高达29000平方公里，约等于比利时的总面积；珠穆朗玛峰山脚下的人口密度非常低，尼泊尔境内海拔超过3000米的地区人口仅有不到50万人，而中国境内的藏区更是人迹罕至，仅有极少数的牧民在此生活。总的来说，珠穆朗玛峰是一个神秘而又充满挑战的地方，其海拔高度和自然景观吸引着众多冒险家和探险者前来挑战。</t>
+  </si>
+  <si>
+    <t>8800、30%、5000、29000、50万、极少数。</t>
   </si>
   <si>
     <t>请从以下文本中抽取出物体属性：这款手表是一款非常轻巧的设计，戴起来几乎没有重量感，完全不会让人感到压迫或不适。同时，这款手表的绑带也非常容易调节，可以轻松适应不同大小的手腕，让你无需担心戴上去后过紧或过松的问题。除了这些舒适的特性，这款手表还具有许多其他的优点。它的表盘采用了最新的技术，可以清晰地显示时间、日期和其他的相关信息，而且还配备了多种功能，例如闹钟、秒表、计时器等，非常实用。另外，这款手表的设计也非常时尚，它的造型简约而不失优雅，无论是搭配休闲装还是正式服装都非常适合。无论是运动爱好者还是商务人士，这款手表都是一个绝佳的选择。它的轻巧和舒适性能够让你在各种场合轻松佩戴，同时其多种功能和时尚的设计也能满足你的各种需求。所以，如果你正在寻找一款高性能、时尚的手表，这款手表绝对是一个不错的选择。</t>
@@ -2651,6 +2916,9 @@
 5. 适用人群：这款手表适合运动爱好者和商务人士。
 6. 适用场合：无论是在各种场合，这款手表都可以轻松佩戴。
 这些属性可以帮助我们了解这款手表的特点，从而为消费者提供更多关于产品的信息。</t>
+  </si>
+  <si>
+    <t>物体属性：轻巧、舒适、容易调节、适合不同大小的手、最新技术、显示时间、显示日期和其他相关信息、多种功能、时尚、适合各种场合、高性能、适合运动爱好者和商务人士。</t>
   </si>
   <si>
     <t>手表属性:设计、重量感、绑带、表盘技术、时间显示、日期显示、闹钟功能、秒表功能、计时器功能、时尚造型。</t>
@@ -2693,6 +2961,9 @@
 4. 时尚设计</t>
   </si>
   <si>
+    <t>物体属性：轻巧、舒适、多功能、时尚、高性能。</t>
+  </si>
+  <si>
     <t>从以下文本中抽取有关天气的信息：据当地气象部门的最新数据显示，北京时间X月X日稍晚，哈尔滨市将迎来一次大风天气，这也引起了市民们的关注。根据气象部门发布的消息，该市区将有6级到7级的大风，伴随着扬沙或浮尘天气。这种情况下，人们应当注意防范大风带来的不利影响，如出行时应注意防范被飞沙或飞尘的侵袭，同时也要注意防范树枝、广告牌等高空物品被大风吹倒的可能性。为了保障市民的安全，当地政府已经启动了相关的应急预案，并呼吁市民们要密切关注气象部门发布的天气预警信息，及时做好防风、防沙措施，减少不必要的出行，确保自己和家人的生命安全。同时，政府也在加强城市环境卫生工作，确保城市内的道路、广场等公共场所能够及时清理，保持干净整洁的环境。相信在政府和市民共同的努力下，这场大风天气也不会对当地的正常生活和工作造成太大的影响。</t>
   </si>
   <si>
@@ -2744,6 +3015,16 @@
 5. 政府也在加强城市环境卫生工作，确保城市内的道路、广场等公共场所能够及时清理，保持干净整洁的环境。</t>
   </si>
   <si>
+    <t>根据文本，可以抽取以下有关天气的信息:
+时间：北京时间X 月 X 日稍晚
+天气状况：大风
+风力等级：6级到 7级
+伴随的天气现象：扬沙或飞沙
+防范措施：注意防范被大风吹袭、高空物品被风吹倒、出行时注意防范飞沙或浮灰尘侵袭
+应急预案：当地政府已经启用了相关的应急预案文本
+环境卫生：政府正在加强城市环境工作，确保公共场所干净整洁 综上所述，根据文本可以得知，哈尔滨市将会迎来一次大风吹袭，风力等级为6级到七级，并伴随着扬沙或者飞沙天气。因此，人们需要采取相应的防范措施，如注意防范被风吹袭、防范高空物品被风倒等。同时，政府和市民应该密切关注气象部门的预警信息，并采取相应的措施来减少不必要的出行。</t>
+  </si>
+  <si>
     <t>时间:北京时间X月X日稍晚
 地点:哈尔滨市
 天气:大风天气,6级到7级的大风,伴随着扬沙或浮尘天气
@@ -2791,6 +3072,9 @@
 * 注意事项：出行时注意防范被飞沙或飞尘的侵袭，同时也要注意防范树枝、广告牌等高空物品被大风吹倒的可能性
 * 应急预案：当地政府已经启动了相关的应急预案，并呼吁市民们要密切关注气象部门发布的天气预警信息，及时做好防风、防沙措施，减少不必要的出行，确保自己和家人的生命安全
 * 城市环境卫生：政府也在加强城市环境卫生工作，确保城市内的道路、广场等公共场所能够及时清理，保持干净整洁的环境</t>
+  </si>
+  <si>
+    <t>北京时间X月X日稍晚，哈尔滨市将迎来一次大风天气，该市区将有6级到7级的大风，伴随着扬沙或浮尘天气。市民们应当注意防范大风带来的不利影响，如出行时应注意防范被飞沙或飞尘的侵袭，同时也要注意防范树枝、广告牌等高空物品被大风吹倒的可能性。政府已经启动了相关的应急预案，并呼吁市民们要密切关注气象部门发布的天气预警信息，及时做好防风、防沙措施，减少不必要的出行，确保自己和家人的生命安全。同时，政府也在加强城市环境卫生工作，确保城市内的道路、广场等公共场所能够及时清理，保持干净整洁的环境。相信在政府和市民共同的努力下，这场大风天气也不会对当地的正常生活和工作造成太大的影响。</t>
   </si>
   <si>
     <t xml:space="preserve">全省新增本土确诊病例1075例（广州537例，深圳69例，珠海36例，汕头51例，佛山51例，韶关6例，梅州14例，惠州30例，汕尾27例，中山33
@@ -3187,6 +3471,37 @@
 请注意，这个JSON数据是基于你提供的信息生成的，如果你提供的信息有所不同，那么生成的JSON数据也会有所不同。</t>
   </si>
   <si>
+    <t xml:space="preserve">{
+"新增本土确诊": {
+"广州": 537,
+"深圳": 69,
+"珠海": 36,
+"汕头": 51,
+"佛山": 51,
+# "韶关": 6,
+# "梅州": 14,
+# "惠州": 30,
+"汕尾": 27,
+"中山": 33,
+# "江门": 3,
+# "阳江": 20,
+"湛江": 31,
+"茂名": 42,
+"肇庆": 31,
+# "清远": 17,
+# "潮州": 32,
+"揭阳": 15,
+"云浮": 30
+},
+"新增境外输入病例": {
+# "广州": 32,
+# "佛山": 4,
+"深圳 ": 4
+}
+}
+</t>
+  </si>
+  <si>
     <t>好的，以下是一个按照您要求生成的结构化 JSON:
 ```json 
 {
@@ -3558,6 +3873,157 @@
 }</t>
   </si>
   <si>
+    <t>[
+{
+"type": "本土确诊",
+"count": 1075
+},
+{
+"type": "境外输入确诊",
+"count": 36
+}
+]
+[
+{
+"type": "本土确诊",
+"count": 537
+},
+{
+"type": "本土确诊",
+"count": 69
+},
+{
+"type": "本土确诊",
+"count": 36
+},
+{
+"type": "本土确诊",
+"count": 51
+},
+{
+"type": "本土确诊",
+"count": 51
+},
+{
+"type": "本土确诊",
+"count": 30
+},
+{
+"type": "本土确诊",
+"count": 42
+},
+{
+"type": "本土确诊",
+"count": 31
+},
+{
+"type": "本土确诊",
+"count": 32
+},
+{
+"type": "本土确诊",
+"count": 27
+},
+{
+"type": "本土确诊",
+"count": 20
+},
+{
+"type": "本土确诊",
+"count": 14
+},
+{
+"type": "本土确诊",
+"count": 15
+},
+{
+"type": "本土确诊",
+"count": 17
+},
+{
+"type": "本土确诊",
+"count": 18
+},
+{
+"type": "本土确诊",
+"count": 19
+},
+{
+"type": "本土确诊",
+"count": 20
+},
+{
+"type": "本土确诊",
+"count": 27
+},
+{
+"type": "本土确诊",
+"count": 28
+},
+{
+"type": "本土确诊",
+"count": 29
+},
+{
+"type": "本土确诊",
+"count": 30
+},
+{
+"type": "本土确诊",
+"count": 31
+},
+{
+"type": "本土确诊",
+"count": 32
+},
+{
+"type": "本土确诊",
+"count": 33
+},
+{
+"type": "本土确诊",
+"count": 34
+},
+{
+"type": "本土确诊",
+"count": 35
+},
+{
+"type": "本土确诊",
+"count": 36
+},
+{
+"type": "本土确诊",
+"count": 37
+},
+{
+"type": "本土确诊",
+"count": 38
+},
+{
+"type": "本土确诊",
+"count": 39
+},
+{
+"type": "本土确诊",
+"count": 40
+},
+{
+"type": "本土确诊",
+"count": 41
+},
+{
+"type": "本土确诊",
+"count": 42
+},
+{
+"type": "本土确诊",
+"count": 43
+},
+{
+"type": "本土确诊</t>
+  </si>
+  <si>
     <t>从以下诗句中提取人物名称：两个黄鹂鸣翠柳，一行白鹭上青天。</t>
   </si>
   <si>
@@ -3584,6 +4050,12 @@
 3. 青天：这里指的是蓝天，是天空的颜色。</t>
   </si>
   <si>
+    <t>这句诗中提到了两个人物名称，分别是“黄鹂”和“白鹭”。
+“黄鹂”是一种鸟类，通常栖息在树林中，喜欢在树枝上唱歌。在这句诗中，黄鹂被描绘成在翠绿的柳树上鸣叫，表现出它们活泼、自由、充满生机的形象。
+“白鹭”是另一种鸟类，它们通常栖息在湖泊和河流附近，喜欢在水中捕食。在这句诗歌中，白鹭被描绘成在天空中飞翔，表现出它们高雅、优美、自由的形象。
+因此，这句诗中的两个人物名称分别是“黄雀”和“白鹇”。</t>
+  </si>
+  <si>
     <t>人物名称:春天的景色中的自然景象。</t>
   </si>
   <si>
@@ -3608,6 +4080,9 @@
   <si>
     <t>两个黄鹂鸣翠柳，一行白鹭上青天。
 人物名称：黄鹂、白鹭。</t>
+  </si>
+  <si>
+    <t>无人物名称。</t>
   </si>
   <si>
     <t>请从以下文本中提取出列车编号、出发站点、到达站点、出发时间和到达时间。编号为K8732的列车是一趟从南方到北方的长途列车。它将从广州南站出发，穿过中国南部的美丽风景线路，一路向北行驶。旅客可以欣赏到壮丽的山脉和沿途的风景。列车计划在4月20日早上6点30分准时从广州南站出发，全程预计需要经过多个站点，其中包括长沙、武汉、郑州和石家庄等城市。经过长途的行驶后，列车预计将于4月21日下午3点15分准时到达北京西站。在整个旅途中，旅客可以在列车上享受舒适的座位和设施，例如空调、餐车、卫生间和WiFi等服务，以保证旅途的舒适和愉悦。无论是商务出行还是度假旅游，这趟列车都是一种安全、快捷和舒适的出行选择。</t>
@@ -3643,6 +4118,17 @@
 到达站点：北京西站
 出发时间：2023年4月20日早上6点30分
 到达时间：2023年4月21日下午3点15分</t>
+  </si>
+  <si>
+    <t>列车编号：K8732
+出发站点：广州南站
+到达站点：北京西站
+出发时间：4月20日早上 6:30
+到达时间：4月21日下午3:15
+列车类型：长途列车
+途经站点：长沙、武汉 、郑州、石家庄等城市
+列车服务：空调、餐食、卫生间、WiFi等
+旅途时长：预计需要经过多站，全程预计为21小时</t>
   </si>
   <si>
     <t>列车编号:K8732
@@ -3708,6 +4194,9 @@
     <t>{"Time":"未知","Location":"海滩","People":"Sophie","Incident":"Sophie在海滩上散步，思绪万千，然后看到了一只小海豚，并且和它一起玩耍，感到心情渐渐明朗起来，决定以全新的态度面对未来。","Idea":"Sophie在海滩上找到了新的希望和活力，决定以全新的态度面对未来。"}</t>
   </si>
   <si>
+    <t>{"Time":null,"Location": "海滩","Pepeople":"Sophie","Incidence": "小海豚跃出水面","Idea": "新的希望和活力的感觉传递给Sophie"}</t>
+  </si>
+  <si>
     <t>时间:2023年2月19日
 地点:未确定
 人物:Sophie
@@ -3749,6 +4238,9 @@
     <t>{"Time": "现在", "Location": "海滩", "People": "Sophie", "Incident": "Sophie独自一人在海滩上散步，思绪万千。突然，一只小海豚从海水中跃出来，引起了她的注意。它开始在水中跳跃，好像在邀请Sophie一起玩耍。Sophie不禁笑了出来，跟着海豚一起跳跃着。她感到心情渐渐明朗起来，仿佛这个小小的生命在向她传递着某种信息。", "Idea": "Sophie在这个海滩上找到了新的希望和活力，决定要以全新的态度面对未来。"}</t>
   </si>
   <si>
+    <t>{"Time":"&lt;抽取出的时间&gt;","Location":"&lt;抽取出的地点&gt;","People":"&lt;抽取出的人物&gt;","Incident":"&lt;抽取出的事件&gt;","Idea":"&lt;抽取出的观点&gt;"}</t>
+  </si>
+  <si>
     <t>请提取以下文章中的成语:“人山人海，熙熙攘攘，摩肩接踵，人来人往，人声鼎沸，人满为患”，文章每年的春运都是中国最大规模的人口流动之一。数以亿计的人们从大城市赶回家乡过年，火车站、汽车站、机场人山人海，熙熙攘攘，摩肩接踵，人来人往，人声鼎沸，人满为患。</t>
   </si>
   <si>
@@ -3769,6 +4261,15 @@
 4. 人来人往
 5. 人声鼎沸
 6. 人满为患</t>
+  </si>
+  <si>
+    <t>这篇文章中包含了以下成语：
+人山人海：形容人非常多，就像山和海一样密集。
+熙熙攘：形容人来人去，热闹喧嚣。
+摩肩接：形容人挤人的场景，形容人群密集。
+人来人往：形容人流不断，来来往往。
+人声鼎沸：形容人声喧哗，非常热闹。
+人满为患：形容人太多，拥挤不堪，无法容纳更多的人。</t>
   </si>
   <si>
     <t>成语:人山人海,熙熙攘攘,摩肩接踵,人来人往,人声鼎沸,人满为患。
@@ -3808,6 +4309,9 @@
     <t>“人山人海，熙熙攘攘，摩肩接踵，人来人往，人声鼎沸，人满为患” 这篇文章中提到的成语有：人山人海，熙熙攘攘，摩肩接踵，人来人往，人声鼎沸，人满为患。</t>
   </si>
   <si>
+    <t>人山人海、熙熙攘攘、摩肩接踵、人来人往、人声鼎沸、人满为患</t>
+  </si>
+  <si>
     <t>明天天气怎么样？
 广州明天最冷多少度？
 广东大后天最暖多少度？
@@ -3848,6 +4352,10 @@
 6. 广州</t>
   </si>
   <si>
+    <t>地点：广州，广东，北京。
+天气实体：最冷，最暖。</t>
+  </si>
+  <si>
     <t>地理位置实体包括： 
 - 明天：指当前日期的下一个时间段，一般指当天。 
 - 广州：指广东省的一个地级市，为句子中的地点实体。 
@@ -3879,6 +4387,12 @@
   </si>
   <si>
     <t>抱歉，我无法回答您的问题，因为您没有提供具体的地理位置实体。请提供完整的信息，以便我能够为您提供准确的答案。</t>
+  </si>
+  <si>
+    <t>明天天气怎么样？
+广州
+广东
+北京</t>
   </si>
   <si>
     <t>明天有雨吗？
@@ -3924,6 +4438,9 @@
 5. 后天去哈尔滨
 6. 现在
 注意，这些实体是根据你的问题中的时间部分提取出来的。如果你的问题中没有明确的时间信息，那么我可能无法提取出所有的时间实体。</t>
+  </si>
+  <si>
+    <t>不存在时间实体。</t>
   </si>
   <si>
     <t>以下是上述文本中的所有时间实体:
@@ -3970,6 +4487,9 @@
     <t>抱歉，您提供的文本中并没有提到时间实体，因此我无法回答您的问题。请提供更具体的信息，以便我能够更好地回答您的问题。</t>
   </si>
   <si>
+    <t>明天, 后天, 北京, 上海, 哈尔滨</t>
+  </si>
+  <si>
     <t>明天有雨吗？
 这周六北京会不会下雪？
 广州周末会有大雾嘛？
@@ -4011,6 +4531,11 @@
 7. "大雾"：这个实体表示广州周末可能会有大雾。</t>
   </si>
   <si>
+    <t>地点：北京,广州
+天气：雨,雪,雾
+时间：这周六</t>
+  </si>
+  <si>
     <t>气象实体提取结果如下:
 - 明天：指代未来的一天，无法确定具体是哪一天。 
 - 雨：指代降水形式之一，具体是指小雨、中雨、暴雨还是其他类型需根据实际情况判断。 
@@ -4050,6 +4575,9 @@
     <t>抱歉，您提供的信息中并没有提到气象实体。请提供更具体的信息，以便我能够回答您的问题。</t>
   </si>
   <si>
+    <t>北京、广州</t>
+  </si>
+  <si>
     <t>帮我把厕所的灯打开。
 关闭全屋灯光。
 帮我把空调打开。
@@ -4095,6 +4623,9 @@
 - 电视</t>
   </si>
   <si>
+    <t>灯、空调、电视。</t>
+  </si>
+  <si>
     <t>电器设备实体包括： 
 - 厕所灯 
 - 全屋灯光 
@@ -4136,6 +4667,9 @@
 3. 电视</t>
   </si>
   <si>
+    <t>厕所、灯、空调、电视</t>
+  </si>
+  <si>
     <t>帮我把空调打开。
 空调温度调节到24℃。
 空调打开制冷模式，风速设为低档。
@@ -4179,6 +4713,12 @@
 空调模式为：制冷模式。</t>
   </si>
   <si>
+    <t>空调开关：打开
+空调温度：24℃
+空调风速：低档
+空调模式：制冷</t>
+  </si>
+  <si>
     <t>开关状态：开启
 温度设置：24℃
 风速设置：低档
@@ -4218,6 +4758,12 @@
 空调的温度设置是：24℃。
 空调的风速设置是：低档。
 空调的模式是：制冷模式。</t>
+  </si>
+  <si>
+    <t>开关状态：空调打开
+温度设置：24℃
+风速设置：低档
+空调模式：制冷模式</t>
   </si>
   <si>
     <t>帮我把电视打开。
@@ -4257,6 +4803,10 @@
 希望这些信息对您有所帮助。</t>
   </si>
   <si>
+    <t>电视：打开
+加湿器：关闭。</t>
+  </si>
+  <si>
     <t>电视：开
 加湿器：关</t>
   </si>
@@ -4279,6 +4829,10 @@
   </si>
   <si>
     <t>抱歉，您提供的信息不足以确定电视和加湿器的开关状态。请提供更多详细信息，例如房间的布局和设备的位置，以便我更准确地回答您的问题。</t>
+  </si>
+  <si>
+    <t>电视开关状态：未知
+加湿器开关状态：关闭</t>
   </si>
   <si>
     <t>请分类以下5种水果：香蕉、西瓜、苹果、草莓、葡萄。</t>
@@ -4327,6 +4881,28 @@
 5. 葡萄：属于葡萄科葡萄属，是一种秋季水果，通常在秋季和冬季成熟。</t>
   </si>
   <si>
+    <t>这五种水果可以按照不同的分类方式进行分类，下面是几种可能的分类方式：
+水果类型分类：
+浆果类水果：草莓、葡萄
+瓜类水果：西瓜
+核果类水果（也称为仁果类）：苹果
+香蕉属于香蕉科，不属于以上四种水果类型。
+水果颜色分类：
+红色水果：草莓
+绿色水果：西瓜、苹果
+黄色水果：香蕉
+紫色水果：葡萄
+水果形状分类：
+圆形水果：草莓，葡萄
+长形水果：香蕉，苹果
+不规则形状水果：西瓜
+水果口感分类：
+软果类：草莓、香蕉
+清脆果类：苹果、葡萄
+多汁果类：西瓜
+水果营养价值分类： - 高维生素C水果：草莓和葡萄 - 富含钾元素水果：香蕉和苹果 - 低糖水果：西瓜和草莓 - 有助于消化水果：苹果和葡萄 需要注意的是，这些分类方式并不是唯一的，可以根据不同的需求和目的进行分类。</t>
+  </si>
+  <si>
     <t>按照季节和产地可以分为:
 1. 香蕉:冬季水果,通常在秋季或冬季成熟。
 2. 西瓜:夏季水果,通常在炎热的夏季成熟。
@@ -4360,6 +4936,9 @@
   </si>
   <si>
     <t>香蕉、苹果属于水果类别，可以归为蔷薇科或核果类。西瓜属于瓜类水果，草莓属于浆果类水果，葡萄属于葡萄科。</t>
+  </si>
+  <si>
+    <t>香蕉、西瓜、苹果、草莓、葡萄可以分类为：香蕉、西瓜、苹果、草莓、葡萄。</t>
   </si>
   <si>
     <t>将下列单词按词性分类。
@@ -4416,6 +4995,12 @@
 形容词：大人</t>
   </si>
   <si>
+    <t>名词：狗，树
+动词：追，跑
+形容词：大人的，高兴的
+注意：有些单词可以同时作为不同的词性，具体取决于它们在句子中的用法。例如，“狗”可以作为名词或动词，但在“我喜欢我的狗”中，它作为名词。</t>
+  </si>
+  <si>
     <t>单词分类如下:
 - 动词:狗,追,跑,高兴,树
 - 名词:大人,追,跑,树
@@ -4455,6 +5040,12 @@
 名词：狗、树</t>
   </si>
   <si>
+    <t>名词：狗，追，跑，大人，树
+动词：跑
+形容词：高兴
+副词：无</t>
+  </si>
+  <si>
     <t>将下列五个词分为两个组别，每个组别都有一个共同点：狗、猫、鸟、鱼、蛇。</t>
   </si>
   <si>
@@ -4486,6 +5077,12 @@
   <si>
     <t>第一组别：动物
 第二组别：非哺乳动物</t>
+  </si>
+  <si>
+    <t>这五个词可以分为两个组别的共同点是它们都是动物。
+第一组包括狗、猫和鸟。这三个动物都是哺乳动物，它们有毛发和产奶的能力。它们都是人类最常见的宠物之一，人们喜欢饲养它们作为伴侣动物。它们也都是脊椎动物，具有高度的智力和适应性。
+第二组包括鱼和蛇。这两个动物都是爬行动物，它们没有毛发和哺乳的能力。它们生活在水中或陆地上，具有不同的特征和习性。鱼是冷血动物，需要水温维持其体温，而蛇是冷血爬行动物。它们也是人类常见的宠物之一。
+综上所述，这五个词可以根据它们的共同点分为两个组，即哺乳动物和爬行动物两组。</t>
   </si>
   <si>
     <t>将五个词分为两个组别,每个组别都有一个共同点,可以参考下述示例:
@@ -4539,6 +5136,12 @@
 共同点：
 - 都是动物
 - 都是哺乳动物、鸟类、鱼类、爬行动物</t>
+  </si>
+  <si>
+    <t>组别1：狗、猫、鸟
+共同点：它们都是哺乳动物。
+组别2：鱼、蛇
+共同点：它们都是爬行动物。</t>
   </si>
   <si>
     <t>给定一组文本，将文本分成正面和负面情感。
@@ -4607,6 +5210,10 @@
 请注意，这个方法可能无法处理所有情况，因为情感词典可能无法完全捕捉到所有可能的情感。在实际应用中，您可能需要根据具体情况调整情感词典和阈值。</t>
   </si>
   <si>
+    <t>正面情感：这部电影非常出色的评价，值得推荐，导演做得很好。
+负面情感：这场音乐会真是个悲剧，我非常失望的评价。</t>
+  </si>
+  <si>
     <t>这部电影非常出色,值得推荐。我觉得导演做得很好。
 这场音乐会真是个灾难,我非常失望。
 正面情感:
@@ -4681,6 +5288,13 @@
 植物：树木、玫瑰、草地、蘑菇、香蕉</t>
   </si>
   <si>
+    <t>动物：狮子、松鼠，猴子，兔子，山羊
+植物：树木，玫瑰，草地，蘑菇，香蕉
+解释：
+狮子、松树鼠、猴子，兔子、山羊都是动物，它们属于动物界。
+树木、玫瑰、草、蘑菇、香蕉都是植物，它们属于植物界。</t>
+  </si>
+  <si>
     <t>动物:树木、狮子、玫瑰、草地、松鼠、猴子、蘑菇、兔子、山羊。
 植物:香蕉。</t>
   </si>
@@ -4736,6 +5350,14 @@
     <t>这段文本看起来像是新闻报道，特别是体育新闻。</t>
   </si>
   <si>
+    <t>这段文本可以归类为新闻报道。
+原因如下：
+描述了一个事件：文本描述了昨天发生的一场比赛，其中巨人小队获胜了。这是一个客观的事件，而不是一个主观的评论或故事情节。
+提供了一些细节：文本提供了一些关于比赛的具体信息，例如比赛的时间、地点、参赛队伍、比赛结果等。这些细节有助于读者了解比赛的情况。
+使用了客观的语言：文本使用了客观的词汇和句子结构，没有使用过多的修辞手法或情感色彩。这种语言风格更符合新闻报道的要求。
+提供了背景信息：文本提供了关于巨人小队的一些背景信息，例如他们在本赛季的主场比赛中取得的胜利数量。这些信息有助于读者了解巨人小队的情况。 综上所述，这段文本可以分类为新闻报道。</t>
+  </si>
+  <si>
     <t>这段文本属于新闻报道。主要讲述了巨人小队在比赛中取得胜利的情况,包括比赛背景、比赛过程和胜利的意义。同时,新闻报道也会提到该文本所涉及的话题,如比赛场地、球员阵容和球迷氛围等。</t>
   </si>
   <si>
@@ -4801,6 +5423,19 @@
 笔记本电脑：MacBook Pro</t>
   </si>
   <si>
+    <t>将以下电子设备分类为手机，平板电脑或 笔记本电脑：
+iPhone - 手机
+iPad - 平板电脑
+MacBook Pro - 笔记本电脑
+Surface Pro - 平板/笔记本电脑
+Samsung Galaxy Tab S 7 - 平板 解释：
+iPhone是一款智能手机，它具有打电话、发送短信、拍照、浏览互联网等功能。
+iPad是一款平板电脑，它具有触摸屏幕、轻便易携带、易于使用等特点，通常用于娱乐、学习和轻度办公。
+Macbook Pro是一款笔记本电脑，它拥有完整的键盘、触摸板和显示器，可以进行更复杂的任务，如编程、设计等。
+Surface系列产品包括Surface Pro和Surface Book，它们都拥有触摸屏幕、可拆卸键盘和触控笔等特点，可以用于轻度办公、娱乐等。
+SamsungGalaxy Tab S 7是一款平板电脑。它拥有大屏幕、轻巧便携、易于使用的特点，适合娱乐、阅读和轻度工作。</t>
+  </si>
+  <si>
     <t>将这些电子产品分为手机、平板电脑和笔记本电脑三类如下:
 - 手机:iPhone、iPad。
 - 平板电脑:iPad、Samsung Galaxy Tab S7。
@@ -4847,6 +5482,9 @@
 5. Samsung Galaxy Tab S7：平板电脑</t>
   </si>
   <si>
+    <t>iPhone和iPad属于平板电脑，MacBook Pro和Surface Pro属于笔记本电脑，Samsung Galaxy Tab S7属于平板电脑。</t>
+  </si>
+  <si>
     <t>分类以下句子为肯定、否定或中性情感。 句子：'这部电影很好看。', '我不喜欢这首歌。', '这家餐厅的菜很普通。'</t>
   </si>
   <si>
@@ -4878,6 +5516,14 @@
     <t>1. 肯定情感： '这部电影很好看。'
 2. 否定情感： '我不喜欢这首歌。'
 3. 中性情感： '这家餐厅的菜很普通。'</t>
+  </si>
+  <si>
+    <t>这部电影很好吃。' - 肯定情感
+'我不喜欢这个电影。' - 否定情感
+'这家餐厅的食物很一般。' - 中性情感 解释：
+'很好看' 表示对电影的喜爱和欣赏，是肯定情感。
+'不喜欢' 表示对电影的不喜欢和厌恶，是否定情感。
+'很普通' 表示对餐厅食物的平庸和普通，没有特别的好或坏，是中性的情感。</t>
   </si>
   <si>
     <t>肯定句:
@@ -4925,6 +5571,11 @@
 - 句子'这家餐厅的菜很普通。' 情感：中性</t>
   </si>
   <si>
+    <t>肯定情感：'这部电影很好看。'
+否定情感：'我不喜欢这首歌。'
+中性情感：'这家餐厅的菜很普通。'</t>
+  </si>
+  <si>
     <t>对以下一组商品评论进行情感分类，正面/中立/负面：
 1）价格比其他商家便宜，但质量有点差；2）外观漂亮，但功能不如预期的好；3）使用了几次，感觉很满意。</t>
   </si>
@@ -4959,6 +5610,11 @@
     <t>1）负面
 2）中立
 3）正面</t>
+  </si>
+  <si>
+    <t>1）价格比其他商家的便宜，但品质有点差。- 负面情感。这个评论表明该商品的价格相对较低，但是品质并不好。这可能会让消费者感到失望或者不满意。
+2）外观漂亮但功能不如预期。- 中立情感。这个评价表明该商品的外观很好看，但是它的功能没有达到消费者的预期。这可能会使消费者感到满意，但也可能让他们感到失望。
+3）使用了几次感觉很满意- 正面情感。这个商品的使用体验得到了消费者的满意，这表明他们对商品的性能和质量感到满意。这可能会鼓励其他消费者购买该商品。</t>
   </si>
   <si>
     <t>这组商品评论的情感分类可以是:
@@ -5005,6 +5661,9 @@
 3）正面</t>
   </si>
   <si>
+    <t>1）负面；2）负面；3）正面。</t>
+  </si>
+  <si>
     <t>针对给定的产品列表，基于其描述将它们分类为家具，电子产品或服装。
 1. 大号沙发，布面料，双人座位；2. 电视机，尺寸：55英寸，4K超高清分辨率；3. 黑色晚礼服，适合晚宴或场合穿着。</t>
   </si>
@@ -5039,6 +5698,11 @@
     <t>1. 大号沙发，布面料，双人座位：家具
 2. 电视机，尺寸：55英寸，4K超高清分辨率：电子产品
 3. 黑色晚礼服，适合晚宴或场合穿着：服装</t>
+  </si>
+  <si>
+    <t>大型沙发，布料，双座位 - 家具
+电视，尺寸55英寸，超高清分辨率 - 电子产品
+黑色礼服 - 服装</t>
   </si>
   <si>
     <t>根据产品的描述,可以将产品列表分为以下三个类别:
@@ -12623,7 +13287,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -12646,9 +13310,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -12742,7 +13403,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3982085" y="42404665"/>
+          <a:off x="3982085" y="37907595"/>
           <a:ext cx="2802255" cy="924560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12784,7 +13445,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3940175" y="54606825"/>
+          <a:off x="3940175" y="47584360"/>
           <a:ext cx="2993390" cy="719455"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12808,8 +13469,8 @@
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>2830830</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>1962785</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>188595</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12826,7 +13487,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10558780" y="39118540"/>
+          <a:off x="10558780" y="35706685"/>
           <a:ext cx="2830830" cy="1954530"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12868,7 +13529,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10554970" y="75639930"/>
+          <a:off x="10554970" y="67435730"/>
           <a:ext cx="3089275" cy="2790825"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13172,34 +13833,35 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O31"/>
+  <dimension ref="A1:Q42"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="K1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="N5" sqref="N5"/>
+      <selection pane="bottomLeft" activeCell="T40" sqref="T40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.95"/>
   <cols>
-    <col min="1" max="1" width="34.8504672897196" style="8" customWidth="1"/>
-    <col min="2" max="2" width="27.411214953271" style="8" customWidth="1"/>
-    <col min="3" max="3" width="26.3084112149533" style="8" customWidth="1"/>
-    <col min="4" max="4" width="23.803738317757" style="8" customWidth="1"/>
-    <col min="5" max="5" width="25.4018691588785" style="8" customWidth="1"/>
-    <col min="6" max="6" width="28.6261682242991" style="8" customWidth="1"/>
-    <col min="7" max="8" width="25.8130841121495" style="8" customWidth="1"/>
-    <col min="9" max="9" width="24.0093457943925" style="8" customWidth="1"/>
-    <col min="10" max="10" width="26.411214953271" style="8" customWidth="1"/>
-    <col min="11" max="11" width="22.5981308411215" style="8" customWidth="1"/>
-    <col min="12" max="12" width="25.4018691588785" style="8" customWidth="1"/>
-    <col min="13" max="13" width="24.803738317757" style="8" customWidth="1"/>
-    <col min="14" max="14" width="26.1028037383178" style="8" customWidth="1"/>
-    <col min="15" max="15" width="26.9906542056075" style="8" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="8"/>
+    <col min="1" max="1" width="34.8504672897196" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.411214953271" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.3084112149533" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.803738317757" style="1" customWidth="1"/>
+    <col min="5" max="5" width="25.4018691588785" style="1" customWidth="1"/>
+    <col min="6" max="6" width="28.6261682242991" style="1" customWidth="1"/>
+    <col min="7" max="9" width="25.8130841121495" style="1" customWidth="1"/>
+    <col min="10" max="10" width="24.0093457943925" style="1" customWidth="1"/>
+    <col min="11" max="11" width="26.411214953271" style="1" customWidth="1"/>
+    <col min="12" max="12" width="22.5981308411215" style="1" customWidth="1"/>
+    <col min="13" max="13" width="25.4018691588785" style="1" customWidth="1"/>
+    <col min="14" max="14" width="24.803738317757" style="1" customWidth="1"/>
+    <col min="15" max="15" width="26.1028037383178" style="1" customWidth="1"/>
+    <col min="16" max="16" width="26.9906542056075" style="1" customWidth="1"/>
+    <col min="17" max="17" width="32.3831775700935" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="1" ht="27.95" spans="1:15">
+    <row r="1" s="7" customFormat="1" ht="27.95" spans="1:17">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -13245,1405 +13907,1600 @@
       <c r="O1" s="7" t="s">
         <v>14</v>
       </c>
+      <c r="P1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" ht="409.5" spans="1:15">
-      <c r="A2" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="8" t="s">
+    <row r="2" ht="409.5" spans="1:17">
+      <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="B2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="C2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="D2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="E2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="F2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="G2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="H2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="I2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="J2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" s="8" t="s">
+      <c r="K2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="L2" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="M2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="3" ht="279.4" spans="1:15">
-      <c r="A3" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="8" t="s">
+    <row r="3" ht="279.4" spans="1:17">
+      <c r="A3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="B3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="C3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="D3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="E3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="F3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="G3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="H3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="I3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="J3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="K3" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="L3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="4" ht="223.5" spans="1:15">
-      <c r="A4" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="G4" s="8" t="s">
+    <row r="4" ht="223.5" spans="1:17">
+      <c r="A4" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="B4" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="C4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="D4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="E4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="F4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M4" s="8" t="s">
+      <c r="G4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N4" s="8" t="s">
+      <c r="H4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="O4" s="8" t="s">
+      <c r="I4" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="J4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="5" ht="409.5" spans="1:15">
-      <c r="A5" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="I5" s="8" t="s">
+    <row r="5" ht="409.5" spans="1:17">
+      <c r="A5" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="B5" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="C5" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="L5" s="8" t="s">
+      <c r="D5" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="M5" s="8" t="s">
+      <c r="E5" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="N5" s="8" t="s">
+      <c r="F5" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="O5" s="8" t="s">
+      <c r="G5" s="1" t="s">
         <v>73</v>
       </c>
+      <c r="H5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>83</v>
+      </c>
     </row>
-    <row r="6" ht="409.5" spans="1:15">
-      <c r="A6" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="L6" s="8" t="s">
+    <row r="6" ht="409.5" spans="1:17">
+      <c r="A6" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="M6" s="8" t="s">
+      <c r="B6" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="N6" s="8" t="s">
+      <c r="C6" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="O6" s="8" t="s">
+      <c r="D6" s="1" t="s">
         <v>87</v>
       </c>
+      <c r="E6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>99</v>
+      </c>
     </row>
-    <row r="7" ht="409.5" spans="1:15">
-      <c r="A7" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="M7" s="8" t="s">
+    <row r="7" ht="409.5" spans="1:17">
+      <c r="A7" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="N7" s="8" t="s">
+      <c r="B7" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="O7" s="8" t="s">
+      <c r="C7" s="1" t="s">
         <v>102</v>
       </c>
+      <c r="D7" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>111</v>
+      </c>
     </row>
-    <row r="8" ht="409.5" spans="1:15">
-      <c r="A8" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="L8" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="M8" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="N8" s="8" t="s">
+    <row r="8" ht="409.5" spans="1:17">
+      <c r="A8" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="O8" s="8" t="s">
+      <c r="B8" s="1" t="s">
         <v>117</v>
       </c>
+      <c r="C8" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>132</v>
+      </c>
     </row>
-    <row r="9" ht="409.5" spans="1:15">
-      <c r="A9" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="L9" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="M9" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="N9" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="O9" s="8" t="s">
-        <v>132</v>
+    <row r="9" ht="409.5" spans="1:17">
+      <c r="A9" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>149</v>
       </c>
     </row>
-    <row r="10" ht="153.65" spans="1:15">
-      <c r="A10" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="L10" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="M10" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="N10" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="O10" s="8" t="s">
-        <v>147</v>
+    <row r="10" ht="153.65" spans="1:17">
+      <c r="A10" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>166</v>
       </c>
     </row>
-    <row r="11" ht="307.35" spans="1:15">
-      <c r="A11" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="L11" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="M11" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="N11" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="O11" s="8" t="s">
-        <v>162</v>
+    <row r="11" ht="307.35" spans="1:17">
+      <c r="A11" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>183</v>
       </c>
     </row>
-    <row r="12" ht="409.5" spans="1:15">
-      <c r="A12" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="L12" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="M12" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="N12" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="O12" s="8" t="s">
-        <v>176</v>
+    <row r="12" ht="409.5" spans="1:17">
+      <c r="A12" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>199</v>
       </c>
     </row>
-    <row r="13" ht="409.5" spans="1:15">
-      <c r="A13" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="L13" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="M13" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="N13" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="O13" s="8" t="s">
-        <v>179</v>
+    <row r="13" ht="409.5" spans="1:17">
+      <c r="A13" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>202</v>
       </c>
     </row>
-    <row r="14" ht="409.5" spans="1:15">
-      <c r="A14" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="K14" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="L14" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="M14" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="N14" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="O14" s="8" t="s">
-        <v>201</v>
+    <row r="14" ht="409.5" spans="1:17">
+      <c r="A14" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>227</v>
       </c>
     </row>
-    <row r="15" ht="409.5" spans="1:15">
-      <c r="A15" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="K15" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="L15" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="M15" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="N15" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="O15" s="8" t="s">
-        <v>216</v>
+    <row r="15" ht="409.5" spans="1:17">
+      <c r="A15" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>244</v>
       </c>
     </row>
-    <row r="16" ht="409.5" spans="1:15">
-      <c r="A16" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="K16" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="L16" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="M16" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="N16" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="O16" s="8" t="s">
-        <v>231</v>
+    <row r="16" ht="409.5" spans="1:17">
+      <c r="A16" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>261</v>
       </c>
     </row>
-    <row r="17" ht="409.5" spans="1:15">
-      <c r="A17" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="J17" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="K17" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="L17" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="M17" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="N17" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="O17" s="8" t="s">
-        <v>245</v>
+    <row r="17" ht="409.5" spans="1:17">
+      <c r="A17" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>277</v>
       </c>
     </row>
-    <row r="18" ht="349.25" spans="1:15">
-      <c r="A18" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="J18" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="K18" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="L18" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="M18" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="N18" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="O18" s="8" t="s">
-        <v>255</v>
+    <row r="18" ht="349.25" spans="1:17">
+      <c r="A18" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>289</v>
       </c>
     </row>
-    <row r="19" ht="409.5" spans="1:15">
-      <c r="A19" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="J19" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="K19" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="L19" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="M19" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="N19" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="O19" s="8" t="s">
-        <v>270</v>
+    <row r="19" ht="409.5" spans="1:17">
+      <c r="A19" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>306</v>
       </c>
     </row>
-    <row r="20" ht="409.5" spans="1:15">
-      <c r="A20" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="J20" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="K20" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="L20" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="M20" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="N20" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="O20" s="8" t="s">
-        <v>282</v>
+    <row r="20" ht="409.5" spans="1:17">
+      <c r="A20" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>320</v>
       </c>
     </row>
-    <row r="21" ht="195.6" spans="1:15">
-      <c r="A21" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="J21" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="K21" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="L21" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="M21" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="N21" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="O21" s="8" t="s">
-        <v>295</v>
+    <row r="21" ht="363.2" spans="1:17">
+      <c r="A21" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>332</v>
       </c>
     </row>
-    <row r="22" ht="409.5" spans="1:15">
-      <c r="A22" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>300</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>303</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="J22" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="K22" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="L22" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="M22" s="8" t="s">
-        <v>300</v>
-      </c>
-      <c r="N22" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="O22" s="8" t="s">
-        <v>308</v>
+    <row r="22" ht="409.5" spans="1:17">
+      <c r="A22" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>349</v>
       </c>
     </row>
-    <row r="23" ht="409.5" spans="1:15">
-      <c r="A23" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>311</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>313</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="I23" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="J23" s="8" t="s">
-        <v>318</v>
-      </c>
-      <c r="K23" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="L23" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="M23" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="N23" s="8" t="s">
-        <v>322</v>
-      </c>
-      <c r="O23" s="8" t="s">
-        <v>323</v>
+    <row r="23" ht="409.5" spans="1:17">
+      <c r="A23" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>366</v>
       </c>
     </row>
-    <row r="24" ht="83.8" spans="1:15">
-      <c r="A24" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="I24" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="J24" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="K24" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="L24" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="M24" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="N24" s="8" t="s">
-        <v>334</v>
-      </c>
-      <c r="O24" s="8" t="s">
-        <v>335</v>
+    <row r="24" ht="83.8" spans="1:17">
+      <c r="A24" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>380</v>
       </c>
     </row>
-    <row r="25" ht="390.65" spans="1:15">
-      <c r="A25" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>337</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>338</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>339</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>338</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>340</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="I25" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="J25" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="K25" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="L25" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="M25" s="8" t="s">
-        <v>338</v>
-      </c>
-      <c r="N25" s="8" t="s">
-        <v>345</v>
-      </c>
-      <c r="O25" s="8" t="s">
-        <v>346</v>
+    <row r="25" ht="390.65" spans="1:17">
+      <c r="A25" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>393</v>
       </c>
     </row>
-    <row r="26" ht="195.6" spans="1:15">
-      <c r="A26" s="8" t="s">
-        <v>347</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>348</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>351</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="H26" s="8" t="s">
-        <v>353</v>
-      </c>
-      <c r="I26" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="J26" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="K26" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="L26" s="8" t="s">
-        <v>355</v>
-      </c>
-      <c r="M26" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="N26" s="8" t="s">
-        <v>356</v>
-      </c>
-      <c r="O26" s="8" t="s">
-        <v>349</v>
+    <row r="26" ht="409.5" spans="1:17">
+      <c r="A26" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>396</v>
       </c>
     </row>
-    <row r="27" ht="363.2" spans="1:15">
-      <c r="A27" s="8" t="s">
-        <v>357</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>358</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>359</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>360</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>361</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>364</v>
-      </c>
-      <c r="I27" s="8" t="s">
-        <v>365</v>
-      </c>
-      <c r="J27" s="8" t="s">
-        <v>366</v>
-      </c>
-      <c r="K27" s="8" t="s">
-        <v>367</v>
-      </c>
-      <c r="L27" s="8" t="s">
-        <v>368</v>
-      </c>
-      <c r="M27" s="8" t="s">
-        <v>369</v>
-      </c>
-      <c r="N27" s="8" t="s">
-        <v>370</v>
-      </c>
-      <c r="O27" s="8" t="s">
-        <v>367</v>
+    <row r="27" ht="363.2" spans="1:17">
+      <c r="A27" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>420</v>
       </c>
     </row>
-    <row r="28" ht="321.3" spans="1:15">
-      <c r="A28" s="8" t="s">
-        <v>371</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>372</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>373</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>373</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>373</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>374</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>375</v>
-      </c>
-      <c r="H28" s="8" t="s">
-        <v>373</v>
-      </c>
-      <c r="I28" s="8" t="s">
-        <v>373</v>
-      </c>
-      <c r="J28" s="8" t="s">
-        <v>376</v>
-      </c>
-      <c r="K28" s="8" t="s">
-        <v>373</v>
-      </c>
-      <c r="L28" s="8" t="s">
-        <v>373</v>
-      </c>
-      <c r="M28" s="8" t="s">
-        <v>377</v>
-      </c>
-      <c r="N28" s="8" t="s">
-        <v>378</v>
-      </c>
-      <c r="O28" s="8" t="s">
-        <v>379</v>
+    <row r="28" ht="321.3" spans="1:17">
+      <c r="A28" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>423</v>
       </c>
     </row>
-    <row r="29" ht="349.25" spans="1:15">
-      <c r="A29" s="8" t="s">
-        <v>380</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>381</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>383</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>383</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>384</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="H29" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="I29" s="8" t="s">
-        <v>387</v>
-      </c>
-      <c r="J29" s="8" t="s">
-        <v>388</v>
-      </c>
-      <c r="K29" s="8" t="s">
-        <v>387</v>
-      </c>
-      <c r="L29" s="8" t="s">
-        <v>389</v>
-      </c>
-      <c r="M29" s="8" t="s">
-        <v>390</v>
-      </c>
-      <c r="N29" s="8" t="s">
-        <v>391</v>
-      </c>
-      <c r="O29" s="8" t="s">
-        <v>392</v>
+    <row r="29" ht="349.25" spans="1:17">
+      <c r="A29" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>436</v>
       </c>
     </row>
-    <row r="30" ht="111.75" spans="1:15">
-      <c r="A30" s="8" t="s">
-        <v>393</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>394</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>395</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>396</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>397</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>398</v>
-      </c>
-      <c r="G30" s="8" t="s">
-        <v>399</v>
-      </c>
-      <c r="H30" s="8" t="s">
-        <v>400</v>
-      </c>
-      <c r="I30" s="8" t="s">
-        <v>401</v>
-      </c>
-      <c r="J30" s="8" t="s">
-        <v>402</v>
-      </c>
-      <c r="K30" s="8" t="s">
-        <v>403</v>
-      </c>
-      <c r="L30" s="8" t="s">
-        <v>394</v>
-      </c>
-      <c r="M30" s="8" t="s">
-        <v>404</v>
-      </c>
-      <c r="N30" s="8" t="s">
-        <v>405</v>
-      </c>
-      <c r="O30" s="8" t="s">
-        <v>406</v>
+    <row r="30" ht="111.75" spans="1:17">
+      <c r="A30" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>460</v>
       </c>
     </row>
-    <row r="31" ht="97.8" spans="1:15">
-      <c r="A31" s="8" t="s">
-        <v>407</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>408</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>409</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>410</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>411</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>412</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>413</v>
-      </c>
-      <c r="H31" s="8" t="s">
-        <v>414</v>
-      </c>
-      <c r="I31" s="8" t="s">
-        <v>415</v>
-      </c>
-      <c r="J31" s="8" t="s">
-        <v>416</v>
-      </c>
-      <c r="K31" s="8" t="s">
-        <v>415</v>
-      </c>
-      <c r="L31" s="8" t="s">
-        <v>417</v>
-      </c>
-      <c r="M31" s="8" t="s">
-        <v>418</v>
-      </c>
-      <c r="N31" s="8" t="s">
-        <v>419</v>
-      </c>
-      <c r="O31" s="8" t="s">
-        <v>420</v>
+    <row r="31" ht="97.8" spans="1:17">
+      <c r="A31" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>470</v>
       </c>
     </row>
+    <row r="32" ht="27.95"/>
+    <row r="33" ht="41.9"/>
+    <row r="35" ht="27.95"/>
+    <row r="36" ht="83.8"/>
+    <row r="38" ht="41.9"/>
+    <row r="39" ht="83.8"/>
+    <row r="40" ht="69.85"/>
+    <row r="41" ht="41.9"/>
+    <row r="42" ht="83.8"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -14654,35 +15511,36 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O21"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" topLeftCell="N1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="N31" sqref="N31"/>
+      <selection pane="bottomLeft" activeCell="T24" sqref="T24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.95"/>
   <cols>
-    <col min="1" max="1" width="41.6728971962617" style="8" customWidth="1"/>
-    <col min="2" max="2" width="27.2429906542056" style="8" customWidth="1"/>
-    <col min="3" max="3" width="25.4766355140187" style="8" customWidth="1"/>
-    <col min="4" max="4" width="23.0934579439252" style="8" customWidth="1"/>
-    <col min="5" max="5" width="24.5981308411215" style="8" customWidth="1"/>
-    <col min="6" max="6" width="22.5981308411215" style="8" customWidth="1"/>
-    <col min="7" max="7" width="24.0934579439252" style="8" customWidth="1"/>
-    <col min="8" max="8" width="25.8598130841122" style="8" customWidth="1"/>
-    <col min="9" max="9" width="24.5981308411215" style="8" customWidth="1"/>
-    <col min="10" max="10" width="28.3177570093458" style="8" customWidth="1"/>
-    <col min="11" max="11" width="22.9906542056075" style="8" customWidth="1"/>
-    <col min="12" max="12" width="24.2242990654206" style="8" customWidth="1"/>
-    <col min="13" max="13" width="26.4859813084112" style="8" customWidth="1"/>
-    <col min="14" max="14" width="24.981308411215" style="8" customWidth="1"/>
-    <col min="15" max="15" width="23.981308411215" style="8" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="8"/>
+    <col min="1" max="1" width="41.6728971962617" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.2429906542056" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.4766355140187" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.0934579439252" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.5981308411215" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.5981308411215" style="1" customWidth="1"/>
+    <col min="7" max="7" width="24.0934579439252" style="1" customWidth="1"/>
+    <col min="8" max="9" width="25.8598130841122" style="1" customWidth="1"/>
+    <col min="10" max="10" width="24.5981308411215" style="1" customWidth="1"/>
+    <col min="11" max="11" width="28.3177570093458" style="1" customWidth="1"/>
+    <col min="12" max="12" width="22.9906542056075" style="1" customWidth="1"/>
+    <col min="13" max="13" width="24.2242990654206" style="1" customWidth="1"/>
+    <col min="14" max="14" width="26.4859813084112" style="1" customWidth="1"/>
+    <col min="15" max="15" width="24.981308411215" style="1" customWidth="1"/>
+    <col min="16" max="16" width="23.981308411215" style="1" customWidth="1"/>
+    <col min="17" max="17" width="29" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="1" ht="27.95" spans="1:15">
+    <row r="1" s="7" customFormat="1" ht="27.95" spans="1:17">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -14728,945 +15586,1071 @@
       <c r="O1" s="7" t="s">
         <v>14</v>
       </c>
+      <c r="P1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" ht="321.3" spans="1:15">
-      <c r="A2" s="8" t="s">
-        <v>421</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>422</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>423</v>
-      </c>
-      <c r="D2" s="8" t="s">
+    <row r="2" ht="321.3" spans="1:17">
+      <c r="A2" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="3" ht="153.65" spans="1:17">
+      <c r="A3" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="4" ht="409.5" spans="1:17">
+      <c r="A4" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="5" ht="409.5" spans="1:17">
+      <c r="A5" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="6" ht="223.5" spans="1:17">
+      <c r="A6" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="7" ht="409.5" spans="1:17">
+      <c r="A7" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="8" ht="409.5" spans="1:17">
+      <c r="A8" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>425</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>426</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>426</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>427</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>428</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>429</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>430</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>431</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>432</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>433</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>434</v>
+      <c r="G8" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>592</v>
       </c>
     </row>
-    <row r="3" ht="139.7" spans="1:15">
-      <c r="A3" s="8" t="s">
-        <v>435</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>436</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>437</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>438</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>439</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>442</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>444</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>445</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>446</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>447</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>448</v>
-      </c>
-      <c r="O3" s="8" t="s">
-        <v>449</v>
+    <row r="9" ht="409.5" spans="1:17">
+      <c r="A9" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>609</v>
       </c>
     </row>
-    <row r="4" ht="409.5" spans="1:15">
-      <c r="A4" s="8" t="s">
-        <v>450</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>451</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>452</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>453</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>454</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>455</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>456</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>457</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>458</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>459</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>460</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>461</v>
-      </c>
-      <c r="M4" s="8" t="s">
-        <v>462</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>463</v>
-      </c>
-      <c r="O4" s="8" t="s">
-        <v>464</v>
+    <row r="10" ht="409.5" spans="1:17">
+      <c r="A10" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>626</v>
       </c>
     </row>
-    <row r="5" ht="409.5" spans="1:15">
-      <c r="A5" s="8" t="s">
-        <v>465</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>466</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>467</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>468</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>469</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>470</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>471</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>472</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>473</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>474</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>475</v>
-      </c>
-      <c r="L5" s="8" t="s">
-        <v>476</v>
-      </c>
-      <c r="M5" s="8" t="s">
-        <v>477</v>
-      </c>
-      <c r="N5" s="8" t="s">
-        <v>478</v>
-      </c>
-      <c r="O5" s="8" t="s">
-        <v>479</v>
+    <row r="11" ht="409.5" spans="1:17">
+      <c r="A11" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>643</v>
       </c>
     </row>
-    <row r="6" ht="223.5" spans="1:15">
-      <c r="A6" s="8" t="s">
-        <v>480</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>481</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>482</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>483</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>484</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>485</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>486</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>487</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>488</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>489</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>490</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>491</v>
-      </c>
-      <c r="M6" s="8" t="s">
-        <v>492</v>
-      </c>
-      <c r="N6" s="8" t="s">
-        <v>493</v>
-      </c>
-      <c r="O6" s="8" t="s">
-        <v>494</v>
+    <row r="12" ht="251.45" spans="1:17">
+      <c r="A12" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>659</v>
       </c>
     </row>
-    <row r="7" ht="409.5" spans="1:15">
-      <c r="A7" s="8" t="s">
-        <v>495</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>496</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>497</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>498</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>499</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>500</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>501</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>502</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>503</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>504</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>505</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>506</v>
-      </c>
-      <c r="M7" s="8" t="s">
-        <v>507</v>
-      </c>
-      <c r="N7" s="8" t="s">
-        <v>508</v>
-      </c>
-      <c r="O7" s="8" t="s">
-        <v>509</v>
+    <row r="13" ht="307.35" spans="1:17">
+      <c r="A13" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>669</v>
       </c>
     </row>
-    <row r="8" ht="409.5" spans="1:15">
-      <c r="A8" s="8" t="s">
-        <v>510</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>511</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>512</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>513</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>514</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>374</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>515</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>516</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>517</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>518</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>519</v>
-      </c>
-      <c r="L8" s="8" t="s">
-        <v>520</v>
-      </c>
-      <c r="M8" s="8" t="s">
-        <v>521</v>
-      </c>
-      <c r="N8" s="8" t="s">
-        <v>522</v>
-      </c>
-      <c r="O8" s="8" t="s">
-        <v>523</v>
+    <row r="14" ht="363.2" spans="1:17">
+      <c r="A14" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>688</v>
       </c>
     </row>
-    <row r="9" ht="409.5" spans="1:15">
-      <c r="A9" s="8" t="s">
-        <v>524</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>525</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>526</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>527</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>528</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>529</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>530</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>531</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>532</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>533</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>534</v>
-      </c>
-      <c r="L9" s="8" t="s">
-        <v>535</v>
-      </c>
-      <c r="M9" s="8" t="s">
-        <v>536</v>
-      </c>
-      <c r="N9" s="8" t="s">
-        <v>537</v>
-      </c>
-      <c r="O9" s="8" t="s">
-        <v>538</v>
+    <row r="15" ht="409.5" spans="1:17">
+      <c r="A15" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>702</v>
       </c>
     </row>
-    <row r="10" ht="409.5" spans="1:15">
-      <c r="A10" s="8" t="s">
-        <v>539</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>540</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>541</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>542</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>543</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>544</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>545</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>546</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>547</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>548</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>549</v>
-      </c>
-      <c r="L10" s="8" t="s">
-        <v>550</v>
-      </c>
-      <c r="M10" s="8" t="s">
-        <v>551</v>
-      </c>
-      <c r="N10" s="8" t="s">
-        <v>552</v>
-      </c>
-      <c r="O10" s="8" t="s">
-        <v>553</v>
+    <row r="16" ht="153.65" spans="1:17">
+      <c r="A16" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>719</v>
       </c>
     </row>
-    <row r="11" ht="409.5" spans="1:15">
-      <c r="A11" s="8" t="s">
-        <v>554</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>555</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>556</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>557</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>558</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>559</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>560</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>561</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>562</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="L11" s="8" t="s">
-        <v>565</v>
-      </c>
-      <c r="M11" s="8" t="s">
-        <v>566</v>
-      </c>
-      <c r="N11" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="O11" s="8" t="s">
-        <v>568</v>
+    <row r="17" ht="223.5" spans="1:17">
+      <c r="A17" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>736</v>
       </c>
     </row>
-    <row r="12" ht="195.6" spans="1:15">
-      <c r="A12" s="8" t="s">
-        <v>569</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>570</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>571</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>572</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>573</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>574</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>575</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>576</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>577</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>578</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>579</v>
-      </c>
-      <c r="L12" s="8" t="s">
-        <v>580</v>
-      </c>
-      <c r="M12" s="8" t="s">
-        <v>571</v>
-      </c>
-      <c r="N12" s="8" t="s">
-        <v>581</v>
-      </c>
-      <c r="O12" s="8" t="s">
-        <v>582</v>
+    <row r="18" ht="363.2" spans="1:17">
+      <c r="A18" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>753</v>
       </c>
     </row>
-    <row r="13" ht="307.35" spans="1:15">
-      <c r="A13" s="8" t="s">
-        <v>583</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>584</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>585</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>586</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>587</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>588</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>584</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>589</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>584</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>590</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>591</v>
-      </c>
-      <c r="L13" s="8" t="s">
-        <v>592</v>
-      </c>
-      <c r="M13" s="8" t="s">
-        <v>584</v>
-      </c>
-      <c r="N13" s="8" t="s">
-        <v>593</v>
-      </c>
-      <c r="O13" s="8" t="s">
-        <v>584</v>
+    <row r="19" ht="181.6" spans="1:17">
+      <c r="A19" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>770</v>
       </c>
     </row>
-    <row r="14" ht="363.2" spans="1:15">
-      <c r="A14" s="8" t="s">
-        <v>594</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>595</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>596</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>597</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>598</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>599</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>600</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>601</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>602</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>603</v>
-      </c>
-      <c r="K14" s="8" t="s">
-        <v>604</v>
-      </c>
-      <c r="L14" s="8" t="s">
-        <v>605</v>
-      </c>
-      <c r="M14" s="8" t="s">
-        <v>606</v>
-      </c>
-      <c r="N14" s="8" t="s">
-        <v>607</v>
-      </c>
-      <c r="O14" s="8" t="s">
-        <v>608</v>
+    <row r="20" ht="111.75" spans="1:17">
+      <c r="A20" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>786</v>
       </c>
     </row>
-    <row r="15" ht="409.5" spans="1:15">
-      <c r="A15" s="8" t="s">
-        <v>609</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>610</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>611</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>612</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>612</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>610</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>613</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>614</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>610</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>615</v>
-      </c>
-      <c r="K15" s="8" t="s">
-        <v>616</v>
-      </c>
-      <c r="L15" s="8" t="s">
-        <v>617</v>
-      </c>
-      <c r="M15" s="8" t="s">
-        <v>618</v>
-      </c>
-      <c r="N15" s="8" t="s">
-        <v>619</v>
-      </c>
-      <c r="O15" s="8" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="16" ht="153.65" spans="1:15">
-      <c r="A16" s="8" t="s">
-        <v>621</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>622</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>623</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>624</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>625</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>626</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>627</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>628</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>629</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>630</v>
-      </c>
-      <c r="K16" s="8" t="s">
-        <v>631</v>
-      </c>
-      <c r="L16" s="8" t="s">
-        <v>632</v>
-      </c>
-      <c r="M16" s="8" t="s">
-        <v>633</v>
-      </c>
-      <c r="N16" s="8" t="s">
-        <v>634</v>
-      </c>
-      <c r="O16" s="8" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="17" ht="223.5" spans="1:15">
-      <c r="A17" s="8" t="s">
-        <v>636</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>637</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>638</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>639</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>640</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>641</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>642</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>643</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>644</v>
-      </c>
-      <c r="J17" s="8" t="s">
-        <v>645</v>
-      </c>
-      <c r="K17" s="8" t="s">
-        <v>646</v>
-      </c>
-      <c r="L17" s="8" t="s">
-        <v>647</v>
-      </c>
-      <c r="M17" s="8" t="s">
-        <v>648</v>
-      </c>
-      <c r="N17" s="8" t="s">
-        <v>649</v>
-      </c>
-      <c r="O17" s="8" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="18" ht="363.2" spans="1:15">
-      <c r="A18" s="8" t="s">
-        <v>651</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>652</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>653</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>654</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>655</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>656</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>657</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>658</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>659</v>
-      </c>
-      <c r="J18" s="8" t="s">
-        <v>660</v>
-      </c>
-      <c r="K18" s="8" t="s">
-        <v>661</v>
-      </c>
-      <c r="L18" s="8" t="s">
-        <v>662</v>
-      </c>
-      <c r="M18" s="8" t="s">
-        <v>663</v>
-      </c>
-      <c r="N18" s="8" t="s">
-        <v>664</v>
-      </c>
-      <c r="O18" s="8" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="19" ht="181.6" spans="1:15">
-      <c r="A19" s="8" t="s">
-        <v>666</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>667</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>668</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>669</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>670</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>671</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>672</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>673</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>674</v>
-      </c>
-      <c r="J19" s="8" t="s">
-        <v>675</v>
-      </c>
-      <c r="K19" s="8" t="s">
-        <v>676</v>
-      </c>
-      <c r="L19" s="8" t="s">
-        <v>677</v>
-      </c>
-      <c r="M19" s="8" t="s">
-        <v>678</v>
-      </c>
-      <c r="N19" s="8" t="s">
-        <v>679</v>
-      </c>
-      <c r="O19" s="8" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="20" ht="111.75" spans="1:15">
-      <c r="A20" s="8" t="s">
-        <v>681</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>682</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>683</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>684</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>685</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>686</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>687</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>684</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>688</v>
-      </c>
-      <c r="J20" s="8" t="s">
-        <v>689</v>
-      </c>
-      <c r="K20" s="8" t="s">
-        <v>690</v>
-      </c>
-      <c r="L20" s="8" t="s">
-        <v>691</v>
-      </c>
-      <c r="M20" s="8" t="s">
-        <v>692</v>
-      </c>
-      <c r="N20" s="8" t="s">
-        <v>693</v>
-      </c>
-      <c r="O20" s="8" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="21" ht="409.5" spans="1:15">
-      <c r="A21" s="8" t="s">
-        <v>695</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>696</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>697</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>698</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>699</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>700</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>701</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>698</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>702</v>
-      </c>
-      <c r="J21" s="8" t="s">
-        <v>703</v>
-      </c>
-      <c r="K21" s="8" t="s">
-        <v>704</v>
-      </c>
-      <c r="L21" s="8" t="s">
-        <v>705</v>
-      </c>
-      <c r="M21" s="8" t="s">
-        <v>699</v>
-      </c>
-      <c r="N21" s="8" t="s">
-        <v>706</v>
-      </c>
-      <c r="O21" s="8" t="s">
-        <v>707</v>
+    <row r="21" ht="409.5" spans="1:17">
+      <c r="A21" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>801</v>
       </c>
     </row>
   </sheetData>
@@ -15679,34 +16663,37 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:Q62"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" topLeftCell="N1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomLeft" activeCell="Q68" sqref="Q68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.95"/>
   <cols>
-    <col min="1" max="1" width="27.018691588785" style="8" customWidth="1"/>
-    <col min="2" max="2" width="22.4953271028037" style="8" customWidth="1"/>
-    <col min="3" max="3" width="24" style="8" customWidth="1"/>
-    <col min="4" max="4" width="26.3177570093458" style="8" customWidth="1"/>
-    <col min="5" max="5" width="26.7102803738318" style="8" customWidth="1"/>
-    <col min="6" max="6" width="26.1121495327103" style="8" customWidth="1"/>
-    <col min="7" max="8" width="25.2056074766355" style="8" customWidth="1"/>
-    <col min="9" max="9" width="24.803738317757" style="8" customWidth="1"/>
-    <col min="10" max="10" width="27.411214953271" style="8" customWidth="1"/>
-    <col min="11" max="11" width="24.7009345794393" style="8" customWidth="1"/>
-    <col min="12" max="12" width="25.196261682243" style="8" customWidth="1"/>
-    <col min="13" max="13" width="22.6915887850467" style="8" customWidth="1"/>
-    <col min="14" max="14" width="23.0934579439252" style="8" customWidth="1"/>
-    <col min="15" max="15" width="21.7196261682243" style="8" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="8"/>
+    <col min="1" max="1" width="27.018691588785" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.4953271028037" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.3177570093458" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26.7102803738318" style="1" customWidth="1"/>
+    <col min="6" max="6" width="26.1121495327103" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.2056074766355" style="1" customWidth="1"/>
+    <col min="8" max="8" width="31.5046728971963" style="1" customWidth="1"/>
+    <col min="9" max="9" width="25.2056074766355" style="1" customWidth="1"/>
+    <col min="10" max="10" width="24.803738317757" style="1" customWidth="1"/>
+    <col min="11" max="11" width="27.411214953271" style="1" customWidth="1"/>
+    <col min="12" max="12" width="24.7009345794393" style="1" customWidth="1"/>
+    <col min="13" max="13" width="25.196261682243" style="1" customWidth="1"/>
+    <col min="14" max="14" width="22.6915887850467" style="1" customWidth="1"/>
+    <col min="15" max="15" width="23.0934579439252" style="1" customWidth="1"/>
+    <col min="16" max="16" width="21.7196261682243" style="1" customWidth="1"/>
+    <col min="17" max="17" width="39.5420560747664" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="1" ht="27.95" spans="1:15">
+    <row r="1" s="7" customFormat="1" ht="27.95" spans="1:17">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -15752,477 +16739,553 @@
       <c r="O1" s="7" t="s">
         <v>14</v>
       </c>
+      <c r="P1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" ht="409.5" spans="1:15">
-      <c r="A2" s="8" t="s">
-        <v>708</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>709</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>710</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>711</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>712</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>713</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>714</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>715</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>716</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>717</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>718</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>719</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>720</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>721</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>722</v>
+    <row r="2" ht="409.5" spans="1:17">
+      <c r="A2" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>818</v>
       </c>
     </row>
-    <row r="3" ht="390.65" spans="1:15">
-      <c r="A3" s="8" t="s">
-        <v>723</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>724</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>725</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>726</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>727</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>728</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>729</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>730</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>731</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>732</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>733</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>734</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>732</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>735</v>
-      </c>
-      <c r="O3" s="8" t="s">
-        <v>732</v>
+    <row r="3" ht="390.65" spans="1:17">
+      <c r="A3" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>833</v>
       </c>
     </row>
-    <row r="4" ht="195.6" spans="1:15">
-      <c r="A4" s="8" t="s">
-        <v>736</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>737</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>738</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>739</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>740</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>741</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>742</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>743</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>744</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>745</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>746</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>747</v>
-      </c>
-      <c r="M4" s="8" t="s">
-        <v>748</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>749</v>
-      </c>
-      <c r="O4" s="8" t="s">
-        <v>750</v>
+    <row r="4" ht="251.45" spans="1:17">
+      <c r="A4" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>850</v>
       </c>
     </row>
-    <row r="5" ht="409.5" spans="1:15">
-      <c r="A5" s="8" t="s">
-        <v>751</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>752</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>753</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>754</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>755</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>756</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>757</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>758</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>755</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>759</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>760</v>
-      </c>
-      <c r="L5" s="8" t="s">
-        <v>761</v>
-      </c>
-      <c r="M5" s="8" t="s">
-        <v>762</v>
-      </c>
-      <c r="N5" s="8" t="s">
-        <v>763</v>
-      </c>
-      <c r="O5" s="8" t="s">
-        <v>764</v>
+    <row r="5" ht="409.5" spans="1:17">
+      <c r="A5" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>855</v>
       </c>
     </row>
-    <row r="6" ht="376.65" spans="1:15">
-      <c r="A6" s="8" t="s">
-        <v>765</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>766</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>767</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>768</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>769</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>770</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>771</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>772</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>769</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>773</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>774</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>775</v>
-      </c>
-      <c r="M6" s="8" t="s">
-        <v>769</v>
-      </c>
-      <c r="N6" s="8" t="s">
-        <v>776</v>
-      </c>
-      <c r="O6" s="8" t="s">
-        <v>777</v>
+    <row r="6" ht="376.65" spans="1:17">
+      <c r="A6" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>870</v>
       </c>
     </row>
-    <row r="7" ht="335.3" spans="1:15">
-      <c r="A7" s="8" t="s">
-        <v>778</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>779</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>780</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>781</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>782</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>783</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>784</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>785</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>782</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>786</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>782</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>787</v>
-      </c>
-      <c r="M7" s="8" t="s">
-        <v>788</v>
-      </c>
-      <c r="N7" s="8" t="s">
-        <v>789</v>
-      </c>
-      <c r="O7" s="8" t="s">
-        <v>790</v>
+    <row r="7" ht="335.3" spans="1:17">
+      <c r="A7" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>891</v>
       </c>
     </row>
-    <row r="8" ht="167.65" spans="1:15">
-      <c r="A8" s="8" t="s">
-        <v>791</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>792</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>793</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>794</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>795</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>796</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>797</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>798</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>799</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>800</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>800</v>
-      </c>
-      <c r="L8" s="8" t="s">
-        <v>801</v>
-      </c>
-      <c r="M8" s="8" t="s">
-        <v>802</v>
-      </c>
-      <c r="N8" s="8" t="s">
-        <v>803</v>
-      </c>
-      <c r="O8" s="8" t="s">
-        <v>804</v>
+    <row r="8" ht="390.65" spans="1:17">
+      <c r="A8" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>909</v>
       </c>
     </row>
-    <row r="9" ht="181.6" spans="1:15">
-      <c r="A9" s="8" t="s">
-        <v>805</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>806</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>807</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>808</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>809</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>810</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>811</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>812</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>813</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>814</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>815</v>
-      </c>
-      <c r="L9" s="8" t="s">
-        <v>816</v>
-      </c>
-      <c r="M9" s="8" t="s">
-        <v>817</v>
-      </c>
-      <c r="N9" s="8" t="s">
-        <v>818</v>
-      </c>
-      <c r="O9" s="8" t="s">
-        <v>819</v>
+    <row r="9" ht="181.6" spans="1:17">
+      <c r="A9" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>926</v>
       </c>
     </row>
-    <row r="10" ht="376.65" spans="1:15">
-      <c r="A10" s="8" t="s">
-        <v>820</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>821</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>822</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>823</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>824</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>825</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>826</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>827</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>828</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>829</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>830</v>
-      </c>
-      <c r="L10" s="8" t="s">
-        <v>831</v>
-      </c>
-      <c r="M10" s="8" t="s">
-        <v>832</v>
-      </c>
-      <c r="N10" s="8" t="s">
-        <v>833</v>
-      </c>
-      <c r="O10" s="8" t="s">
-        <v>834</v>
+    <row r="10" ht="376.65" spans="1:17">
+      <c r="A10" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>943</v>
       </c>
     </row>
-    <row r="11" ht="349.25" spans="1:15">
-      <c r="A11" s="8" t="s">
-        <v>835</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>836</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>837</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>838</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>839</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>840</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>841</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>842</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>843</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>844</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>845</v>
-      </c>
-      <c r="L11" s="8" t="s">
-        <v>846</v>
-      </c>
-      <c r="M11" s="8" t="s">
-        <v>845</v>
-      </c>
-      <c r="N11" s="8" t="s">
-        <v>847</v>
-      </c>
-      <c r="O11" s="8" t="s">
-        <v>848</v>
+    <row r="11" ht="349.25" spans="1:17">
+      <c r="A11" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>955</v>
       </c>
     </row>
+    <row r="34" ht="27.95"/>
+    <row r="36" ht="83.8"/>
+    <row r="37" ht="27.95"/>
+    <row r="46" ht="69.85"/>
+    <row r="53" ht="27.95"/>
+    <row r="54" ht="27.95"/>
+    <row r="57" ht="55.9"/>
+    <row r="59" ht="41.9"/>
+    <row r="60" ht="27.95"/>
+    <row r="62" ht="55.9"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -16235,7 +17298,7 @@
   <sheetPr/>
   <dimension ref="A1:Z31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
@@ -16258,40 +17321,40 @@
   <sheetData>
     <row r="1" ht="27" customHeight="1" spans="1:26">
       <c r="A1" s="2" t="s">
-        <v>849</v>
+        <v>959</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>850</v>
+        <v>960</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>851</v>
+        <v>961</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>852</v>
+        <v>962</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>853</v>
+        <v>963</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>854</v>
+        <v>964</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>855</v>
+        <v>965</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>856</v>
+        <v>966</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>857</v>
+        <v>967</v>
       </c>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
@@ -16310,1134 +17373,1134 @@
     </row>
     <row r="2" ht="303" customHeight="1" spans="1:12">
       <c r="A2" s="4" t="s">
-        <v>858</v>
+        <v>968</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>859</v>
+        <v>969</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>860</v>
+        <v>970</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>861</v>
+        <v>971</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
-    <row r="3" ht="307.35" spans="1:12">
+    <row r="3" ht="251.45" spans="1:12">
       <c r="A3" s="4" t="s">
-        <v>862</v>
+        <v>972</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>863</v>
+        <v>973</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>864</v>
+        <v>974</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>865</v>
+        <v>975</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>866</v>
+        <v>976</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>867</v>
+        <v>977</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>868</v>
+        <v>978</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>869</v>
+        <v>979</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>870</v>
+        <v>980</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>871</v>
+        <v>981</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>872</v>
+        <v>982</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>873</v>
+        <v>983</v>
       </c>
     </row>
     <row r="4" ht="409.5" spans="1:12">
       <c r="A4" s="4" t="s">
-        <v>874</v>
+        <v>984</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>875</v>
+        <v>985</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>876</v>
+        <v>986</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>877</v>
+        <v>987</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
     </row>
-    <row r="5" ht="310.55" spans="1:12">
+    <row r="5" ht="167.65" spans="1:12">
       <c r="A5" s="4" t="s">
-        <v>878</v>
+        <v>988</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>879</v>
+        <v>989</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>880</v>
+        <v>990</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>881</v>
+        <v>991</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>882</v>
+        <v>992</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>883</v>
+        <v>993</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>884</v>
+        <v>994</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>885</v>
+        <v>995</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>886</v>
+        <v>996</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>887</v>
+        <v>997</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>888</v>
+        <v>998</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>889</v>
+        <v>999</v>
       </c>
     </row>
-    <row r="6" ht="335.3" spans="1:12">
+    <row r="6" ht="265.45" spans="1:12">
       <c r="A6" s="4" t="s">
-        <v>890</v>
+        <v>1000</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>891</v>
+        <v>1001</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>892</v>
+        <v>1002</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" ht="321.3" spans="1:12">
       <c r="A7" s="4" t="s">
-        <v>893</v>
+        <v>1003</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>894</v>
+        <v>1004</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>895</v>
+        <v>1005</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>896</v>
+        <v>1006</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>897</v>
+        <v>1007</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>898</v>
+        <v>1008</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>899</v>
+        <v>1009</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>900</v>
+        <v>1010</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>901</v>
+        <v>1011</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>902</v>
+        <v>1012</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>903</v>
+        <v>1013</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>904</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="8" ht="376.65" spans="1:12">
       <c r="A8" s="4" t="s">
-        <v>905</v>
+        <v>1015</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>906</v>
+        <v>1016</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>907</v>
+        <v>1017</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>908</v>
+        <v>1018</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>909</v>
+        <v>1019</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>910</v>
+        <v>1020</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>911</v>
+        <v>1021</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>912</v>
+        <v>1022</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>913</v>
+        <v>1023</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>914</v>
+        <v>1024</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>915</v>
+        <v>1025</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>916</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="9" ht="409.5" spans="1:12">
       <c r="A9" s="4" t="s">
-        <v>917</v>
+        <v>1027</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>918</v>
+        <v>1028</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>919</v>
+        <v>1029</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>920</v>
+        <v>1030</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>921</v>
+        <v>1031</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>922</v>
+        <v>1032</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>923</v>
+        <v>1033</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>924</v>
+        <v>1034</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>925</v>
+        <v>1035</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>926</v>
+        <v>1036</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>927</v>
+        <v>1037</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>928</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="10" ht="279.4" spans="1:12">
       <c r="A10" s="4" t="s">
-        <v>929</v>
+        <v>1039</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>930</v>
+        <v>1040</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>931</v>
+        <v>1041</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>932</v>
+        <v>1042</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
     </row>
-    <row r="11" ht="225.15" spans="1:12">
+    <row r="11" ht="139.7" spans="1:12">
       <c r="A11" s="4" t="s">
-        <v>933</v>
+        <v>1043</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>934</v>
+        <v>1044</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>935</v>
+        <v>1045</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>936</v>
+        <v>1046</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>937</v>
+        <v>1047</v>
       </c>
       <c r="F11"/>
       <c r="G11" s="1" t="s">
-        <v>938</v>
+        <v>1048</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>939</v>
+        <v>1049</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>940</v>
+        <v>1050</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>939</v>
+        <v>1049</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>941</v>
+        <v>1051</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>942</v>
+        <v>1052</v>
       </c>
     </row>
-    <row r="12" ht="192.9" spans="1:12">
+    <row r="12" ht="167.65" spans="1:12">
       <c r="A12" s="4" t="s">
-        <v>943</v>
+        <v>1053</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="C12"/>
       <c r="D12" s="1" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>944</v>
+        <v>1054</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>169</v>
+        <v>191</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>170</v>
+        <v>192</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>945</v>
+        <v>1055</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>946</v>
+        <v>1056</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
     </row>
-    <row r="13" ht="192.9" spans="1:12">
+    <row r="13" ht="111.75" spans="1:12">
       <c r="A13" s="4" t="s">
-        <v>947</v>
+        <v>1057</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>948</v>
+        <v>1058</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>949</v>
+        <v>1059</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>950</v>
+        <v>1060</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>951</v>
+        <v>1061</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>952</v>
+        <v>1062</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>953</v>
+        <v>1063</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>954</v>
+        <v>1064</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>955</v>
+        <v>1065</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>956</v>
+        <v>1066</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>957</v>
+        <v>1067</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>958</v>
+        <v>1068</v>
       </c>
     </row>
-    <row r="14" ht="192.9" spans="1:12">
+    <row r="14" ht="139.7" spans="1:12">
       <c r="A14" s="4" t="s">
-        <v>959</v>
+        <v>1069</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>960</v>
+        <v>1070</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>961</v>
+        <v>1071</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>962</v>
+        <v>1072</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>963</v>
+        <v>1073</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>964</v>
+        <v>1074</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>965</v>
+        <v>1075</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>966</v>
+        <v>1076</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>967</v>
+        <v>1077</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>968</v>
+        <v>1078</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>969</v>
+        <v>1079</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>970</v>
+        <v>1080</v>
       </c>
     </row>
-    <row r="15" ht="192.9" spans="1:12">
+    <row r="15" ht="153.65" spans="1:12">
       <c r="A15" s="4" t="s">
-        <v>971</v>
+        <v>1081</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>972</v>
+        <v>1082</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>973</v>
+        <v>1083</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>974</v>
+        <v>1084</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>975</v>
+        <v>1085</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>976</v>
+        <v>1086</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>977</v>
+        <v>1087</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>974</v>
+        <v>1084</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>978</v>
+        <v>1088</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>979</v>
+        <v>1089</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>980</v>
+        <v>1090</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>981</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="16" ht="223.5" spans="1:12">
       <c r="A16" s="4" t="s">
-        <v>982</v>
+        <v>1092</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>983</v>
+        <v>1093</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>984</v>
+        <v>1094</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>985</v>
+        <v>1095</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>986</v>
+        <v>1096</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>987</v>
+        <v>1097</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>988</v>
+        <v>1098</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>989</v>
+        <v>1099</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>990</v>
+        <v>1100</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>991</v>
+        <v>1101</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>992</v>
+        <v>1102</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>993</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="17" ht="376.65" spans="1:12">
       <c r="A17" s="4" t="s">
-        <v>994</v>
+        <v>1104</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>995</v>
+        <v>1105</v>
       </c>
       <c r="C17"/>
       <c r="D17" s="1" t="s">
-        <v>996</v>
+        <v>1106</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>997</v>
+        <v>1107</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>998</v>
+        <v>1108</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>999</v>
+        <v>1109</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>1000</v>
+        <v>1110</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>1001</v>
+        <v>1111</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>1002</v>
+        <v>1112</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>1003</v>
+        <v>1113</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>1004</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="18" ht="321.3" spans="1:12">
       <c r="A18" s="4" t="s">
-        <v>1005</v>
+        <v>1115</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1006</v>
+        <v>1116</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1007</v>
+        <v>1117</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>1008</v>
+        <v>1118</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>1009</v>
+        <v>1119</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>1010</v>
+        <v>1120</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>1011</v>
+        <v>1121</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>1012</v>
+        <v>1122</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>1013</v>
+        <v>1123</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>1012</v>
+        <v>1122</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>1014</v>
+        <v>1124</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>1015</v>
+        <v>1125</v>
       </c>
     </row>
-    <row r="19" ht="214.4" spans="1:12">
+    <row r="19" ht="167.65" spans="1:12">
       <c r="A19" s="4" t="s">
-        <v>1016</v>
+        <v>1126</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1017</v>
+        <v>1127</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1018</v>
+        <v>1128</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>1019</v>
+        <v>1129</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>1020</v>
+        <v>1130</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>1021</v>
+        <v>1131</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>1022</v>
+        <v>1132</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>1023</v>
+        <v>1133</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>1024</v>
+        <v>1134</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>1025</v>
+        <v>1135</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>1026</v>
+        <v>1136</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>1027</v>
+        <v>1137</v>
       </c>
     </row>
-    <row r="20" ht="409.5" spans="1:12">
+    <row r="20" ht="363.2" spans="1:12">
       <c r="A20" s="4" t="s">
-        <v>1028</v>
+        <v>1138</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>257</v>
+        <v>291</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>258</v>
+        <v>292</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>1029</v>
+        <v>1139</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>260</v>
+        <v>294</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>1030</v>
+        <v>1140</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>263</v>
+        <v>298</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>264</v>
+        <v>299</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>1031</v>
+        <v>1141</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>1032</v>
+        <v>1142</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>267</v>
+        <v>302</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>268</v>
+        <v>303</v>
       </c>
     </row>
     <row r="21" ht="307.35" spans="1:12">
       <c r="A21" s="4" t="s">
-        <v>1033</v>
+        <v>1143</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1034</v>
+        <v>1144</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>1035</v>
+        <v>1145</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>1036</v>
+        <v>1146</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>1037</v>
+        <v>1147</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>1038</v>
+        <v>1148</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>1039</v>
+        <v>1149</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>1040</v>
+        <v>1150</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>1041</v>
+        <v>1151</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>1042</v>
+        <v>1152</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>1040</v>
+        <v>1150</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>1043</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="22" ht="409.5" spans="1:12">
       <c r="A22" s="4" t="s">
-        <v>1044</v>
+        <v>1154</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1045</v>
+        <v>1155</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>1046</v>
+        <v>1156</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>1047</v>
+        <v>1157</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>1048</v>
+        <v>1158</v>
       </c>
       <c r="F22"/>
       <c r="G22" s="1" t="s">
-        <v>1049</v>
+        <v>1159</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>1050</v>
+        <v>1160</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>1051</v>
+        <v>1161</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>1052</v>
+        <v>1162</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>1053</v>
+        <v>1163</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>1054</v>
+        <v>1164</v>
       </c>
     </row>
-    <row r="23" ht="246.65" spans="1:12">
+    <row r="23" ht="153.65" spans="1:12">
       <c r="A23" s="4" t="s">
-        <v>1055</v>
+        <v>1165</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1056</v>
+        <v>1166</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>1057</v>
+        <v>1167</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>1058</v>
+        <v>1168</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>1059</v>
+        <v>1169</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>1060</v>
+        <v>1170</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>1061</v>
+        <v>1171</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>1062</v>
+        <v>1172</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>1063</v>
+        <v>1173</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>1062</v>
+        <v>1172</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>1064</v>
+        <v>1174</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>1065</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="24" ht="409.5" spans="1:12">
       <c r="A24" s="4" t="s">
-        <v>1066</v>
+        <v>1176</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1067</v>
+        <v>1177</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>1068</v>
+        <v>1178</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>1069</v>
+        <v>1179</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>1070</v>
+        <v>1180</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>1071</v>
+        <v>1181</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>1072</v>
+        <v>1182</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>1073</v>
+        <v>1183</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>1074</v>
+        <v>1184</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>1075</v>
+        <v>1185</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>1076</v>
+        <v>1186</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>1077</v>
+        <v>1187</v>
       </c>
     </row>
-    <row r="25" ht="278.35" spans="1:12">
+    <row r="25" ht="171.4" spans="1:12">
       <c r="A25" s="4" t="s">
-        <v>1078</v>
+        <v>1188</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1079</v>
+        <v>1189</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>1080</v>
+        <v>1190</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>1081</v>
+        <v>1191</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>1081</v>
+        <v>1191</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>1081</v>
+        <v>1191</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>1082</v>
+        <v>1192</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>1083</v>
+        <v>1193</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>1081</v>
+        <v>1191</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>1084</v>
+        <v>1194</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>1084</v>
+        <v>1194</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>1083</v>
+        <v>1193</v>
       </c>
     </row>
-    <row r="26" ht="289.05" spans="1:12">
+    <row r="26" ht="171.4" spans="1:12">
       <c r="A26" s="4" t="s">
-        <v>1085</v>
+        <v>1195</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1086</v>
+        <v>1196</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>1087</v>
+        <v>1197</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>1088</v>
+        <v>1198</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>1089</v>
+        <v>1199</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>1090</v>
+        <v>1200</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>1091</v>
+        <v>1201</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>1092</v>
+        <v>1202</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>1093</v>
+        <v>1203</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>1094</v>
+        <v>1204</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>1095</v>
+        <v>1205</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>1092</v>
+        <v>1202</v>
       </c>
     </row>
-    <row r="27" ht="278.35" spans="1:12">
+    <row r="27" ht="171.4" spans="1:12">
       <c r="A27" s="4" t="s">
-        <v>1096</v>
+        <v>1206</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1097</v>
+        <v>1207</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>1098</v>
+        <v>1208</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>1099</v>
+        <v>1209</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>1100</v>
+        <v>1210</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>1101</v>
+        <v>1211</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>1102</v>
+        <v>1212</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>1103</v>
+        <v>1213</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>1104</v>
+        <v>1214</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>1103</v>
+        <v>1213</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>1105</v>
+        <v>1215</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>1103</v>
+        <v>1213</v>
       </c>
     </row>
-    <row r="28" ht="278.35" spans="1:12">
+    <row r="28" ht="171.4" spans="1:12">
       <c r="A28" s="4" t="s">
-        <v>1106</v>
+        <v>1216</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1107</v>
+        <v>1217</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>1108</v>
+        <v>1218</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>1109</v>
+        <v>1219</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>1110</v>
+        <v>1220</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>1111</v>
+        <v>1221</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>1112</v>
+        <v>1222</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>1113</v>
+        <v>1223</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>1114</v>
+        <v>1224</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>1115</v>
+        <v>1225</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>1116</v>
+        <v>1226</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>1117</v>
+        <v>1227</v>
       </c>
     </row>
-    <row r="29" ht="409.5" spans="1:12">
+    <row r="29" ht="342.8" spans="1:12">
       <c r="A29" s="4" t="s">
-        <v>1118</v>
+        <v>1228</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1119</v>
+        <v>1229</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>1120</v>
+        <v>1230</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>1121</v>
+        <v>1231</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>1122</v>
+        <v>1232</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>1123</v>
+        <v>1233</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>1124</v>
+        <v>1234</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>1125</v>
+        <v>1235</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>1126</v>
+        <v>1236</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>1126</v>
+        <v>1236</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>1127</v>
+        <v>1237</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>1126</v>
+        <v>1236</v>
       </c>
     </row>
-    <row r="30" ht="409.5" spans="1:12">
+    <row r="30" ht="332.05" spans="1:12">
       <c r="A30" s="4" t="s">
-        <v>1128</v>
+        <v>1238</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1129</v>
+        <v>1239</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>1130</v>
+        <v>1240</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>1131</v>
+        <v>1241</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>1132</v>
+        <v>1242</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>1133</v>
+        <v>1243</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>1134</v>
+        <v>1244</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>1132</v>
+        <v>1242</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>1135</v>
+        <v>1245</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>1136</v>
+        <v>1246</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>1132</v>
+        <v>1242</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>1132</v>
+        <v>1242</v>
       </c>
     </row>
-    <row r="31" ht="409.5" spans="1:12">
+    <row r="31" ht="332.05" spans="1:12">
       <c r="A31" s="4" t="s">
-        <v>1137</v>
+        <v>1247</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>1138</v>
+        <v>1248</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>1139</v>
+        <v>1249</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>1140</v>
+        <v>1250</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>1141</v>
+        <v>1251</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>1142</v>
+        <v>1252</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>1143</v>
+        <v>1253</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>1144</v>
+        <v>1254</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>1145</v>
+        <v>1255</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>1146</v>
+        <v>1256</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>1144</v>
+        <v>1254</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>1144</v>
+        <v>1254</v>
       </c>
     </row>
   </sheetData>
